--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
     <sheet name="Floor " sheetId="2" r:id="rId2"/>
-    <sheet name="Basic Roof " sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,100 +422,2197 @@
       <c r="F1" t="str">
         <v>Total Hours</v>
       </c>
-      <c r="G1" t="str">
-        <v>Total Width</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Sandwichelement - 480mm</v>
+        <v>Beton bagvægs sternelement  - 240mm</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e681</v>
+        <v>06138e42-14cf-4889-81ff-5cb577a97058-00161cb9</v>
       </c>
       <c r="D2">
-        <v>72.37</v>
+        <v>921.494</v>
       </c>
       <c r="E2">
-        <v>303954</v>
+        <v>5068217</v>
       </c>
       <c r="F2">
-        <v>144.74</v>
+        <v>2764.482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sandwichelement - 450mm</v>
+        <v>Beton bagvægs element - 240mm</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e67f</v>
+        <v>20c97ef1-fb64-41d4-891e-372da3afacf1-00068009</v>
       </c>
       <c r="D3">
-        <v>19.614</v>
+        <v>82.593</v>
       </c>
       <c r="E3">
-        <v>78456</v>
+        <v>NaN</v>
       </c>
       <c r="F3">
-        <v>33.3438</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Beton vægelement - 150mm</v>
+        <v>Beton vægelement indervæg - 240mm</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f553</v>
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-00154339</v>
       </c>
       <c r="D4">
-        <v>20.384999999999998</v>
+        <v>1434.687</v>
       </c>
       <c r="E4">
-        <v>26500.5</v>
+        <v>NaN</v>
       </c>
       <c r="F4">
-        <v>61.155</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Fundament - 900mm</v>
+        <v>Konsolh 250 ved modul 06-C- på 250mm væg</v>
       </c>
       <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <v>66234324-32a0-488c-a570-0d46e40f0cf2-002af2a3</v>
+      </c>
+      <c r="D5">
+        <v>848.377</v>
+      </c>
+      <c r="E5">
+        <v>NaN</v>
+      </c>
+      <c r="F5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Beton vægelement indervæg - 180mm</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" t="str">
+        <v>f6af4370-7487-4380-871e-b8779596a02c-002d10c5</v>
+      </c>
+      <c r="D6">
+        <v>917.3699999999995</v>
+      </c>
+      <c r="E6">
+        <v>NaN</v>
+      </c>
+      <c r="F6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Beton vægelement kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <v>c6896cd4-c49d-464a-8d39-1ce0b0c544f5-002eda95</v>
+      </c>
+      <c r="D7">
+        <v>497.12600000000003</v>
+      </c>
+      <c r="E7">
+        <v>NaN</v>
+      </c>
+      <c r="F7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Beton vægelement kælder ydervæg - 240mm</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f62f</v>
-      </c>
-      <c r="E5">
-        <v>83655</v>
-      </c>
-      <c r="F5">
-        <v>12.84</v>
-      </c>
-      <c r="G5">
-        <v>15.21</v>
+      <c r="C8" t="str">
+        <v>933d8c69-e661-4a74-af39-8cd2a78d7843-000b3316</v>
+      </c>
+      <c r="D8">
+        <v>155.57100000000003</v>
+      </c>
+      <c r="E8">
+        <v>NaN</v>
+      </c>
+      <c r="F8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Beton vægelement kælder indervæg - 240mm</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4bdc22ba-8121-4aef-8716-3720bedf332a-0006a562</v>
+      </c>
+      <c r="D9">
+        <v>60.787</v>
+      </c>
+      <c r="E9">
+        <v>NaN</v>
+      </c>
+      <c r="F9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>In-Situvæg - kælder ydervæg - 385mm</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a6fd</v>
+      </c>
+      <c r="D10">
+        <v>17.14</v>
+      </c>
+      <c r="E10">
+        <v>NaN</v>
+      </c>
+      <c r="F10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Beton vægelement kælder ydervæg med konsol - 350mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a79d</v>
+      </c>
+      <c r="D11">
+        <v>31.99</v>
+      </c>
+      <c r="E11">
+        <v>NaN</v>
+      </c>
+      <c r="F11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>In-Situvæg - kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>a1df5231-b149-43dd-80db-48ce65cbaa80-00088d41</v>
+      </c>
+      <c r="D12">
+        <v>45.079</v>
+      </c>
+      <c r="E12">
+        <v>NaN</v>
+      </c>
+      <c r="F12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>In-Situvæg - kælder indervæg - 200mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006a93e</v>
+      </c>
+      <c r="D13">
+        <v>10.969</v>
+      </c>
+      <c r="E13">
+        <v>NaN</v>
+      </c>
+      <c r="F13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beton vægelement kælder indervæg med konsol - 180mm</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ae97</v>
+      </c>
+      <c r="D14">
+        <v>53.592</v>
+      </c>
+      <c r="E14">
+        <v>NaN</v>
+      </c>
+      <c r="F14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Beton vægelement klæder indervæg med konsol - 250mm</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ada4</v>
+      </c>
+      <c r="D15">
+        <v>85.112</v>
+      </c>
+      <c r="E15">
+        <v>NaN</v>
+      </c>
+      <c r="F15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Beton vægelement kælder indervæg - 250mm</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b6f4</v>
+      </c>
+      <c r="D16">
+        <v>179.39100000000002</v>
+      </c>
+      <c r="E16">
+        <v>NaN</v>
+      </c>
+      <c r="F16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Beton vægelement kælder indervæg - 180mm</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15ec039d-4db4-4827-bb77-4dd9e8a53f28-000b7471</v>
+      </c>
+      <c r="D17">
+        <v>137.014</v>
+      </c>
+      <c r="E17">
+        <v>NaN</v>
+      </c>
+      <c r="F17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Beton vægelement kælder indervæg - 350mm</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>db1a974f-73ca-4b64-90a7-45673492e50c-000abbba</v>
+      </c>
+      <c r="D18">
+        <v>127.054</v>
+      </c>
+      <c r="E18">
+        <v>NaN</v>
+      </c>
+      <c r="F18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>In-Situvæg - kælder indervæg - 400mm</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b267</v>
+      </c>
+      <c r="D19">
+        <v>21.296999999999997</v>
+      </c>
+      <c r="E19">
+        <v>NaN</v>
+      </c>
+      <c r="F19">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>In-Situvæg - kælder indervæg - 600mm</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b2b4</v>
+      </c>
+      <c r="D20">
+        <v>26.488</v>
+      </c>
+      <c r="E20">
+        <v>NaN</v>
+      </c>
+      <c r="F20">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>In-Situvæg - kælder indervæg - 850mm</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b388</v>
+      </c>
+      <c r="D21">
+        <v>62.625</v>
+      </c>
+      <c r="E21">
+        <v>NaN</v>
+      </c>
+      <c r="F21">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 250mm</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b484</v>
+      </c>
+      <c r="D22">
+        <v>167.905</v>
+      </c>
+      <c r="E22">
+        <v>NaN</v>
+      </c>
+      <c r="F22">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Beton bagvægs sternelement - 180mm</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b51b</v>
+      </c>
+      <c r="D23">
+        <v>22.656</v>
+      </c>
+      <c r="E23">
+        <v>NaN</v>
+      </c>
+      <c r="F23">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>In-Situvæg -støttemur 3000mm</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008cfe3</v>
+      </c>
+      <c r="D24">
+        <v>8.544</v>
+      </c>
+      <c r="E24">
+        <v>NaN</v>
+      </c>
+      <c r="F24">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>In-Situvæg -støttemur 400mm</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008d040</v>
+      </c>
+      <c r="D25">
+        <v>113.208</v>
+      </c>
+      <c r="E25">
+        <v>NaN</v>
+      </c>
+      <c r="F25">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Beton vægelement Tunnel Nord ydervæg - 250mm</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" t="str">
+        <v>f05cb4ad-bdc7-49e9-b554-1f03ef927db3-000da2c6</v>
+      </c>
+      <c r="D26">
+        <v>231.086</v>
+      </c>
+      <c r="E26">
+        <v>NaN</v>
+      </c>
+      <c r="F26">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 180mm</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>e8bd54ed-a7de-434a-b593-eab2ec63e1c2-000c94bd</v>
+      </c>
+      <c r="D27">
+        <v>90.355</v>
+      </c>
+      <c r="E27">
+        <v>NaN</v>
+      </c>
+      <c r="F27">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Beton Konsolelement på 250mm kældervæg - 200mm</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>eecbd977-42fd-4ea6-b35b-7f7de2e1df21-0019f090</v>
+      </c>
+      <c r="D28">
+        <v>2.6159999999999997</v>
+      </c>
+      <c r="E28">
+        <v>NaN</v>
+      </c>
+      <c r="F28">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Beton Konsolelement på 180mm kældervæg - 200mm</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>a08858d0-b384-4a54-af49-44123b7b2365-000a633a</v>
+      </c>
+      <c r="D29">
+        <v>2.4459999999999997</v>
+      </c>
+      <c r="E29">
+        <v>NaN</v>
+      </c>
+      <c r="F29">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>In-Situvæg - kælder ydervæg - 500mm</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <v>362aa409-cf52-44d3-95a5-710f5bf483b2-0010e483</v>
+      </c>
+      <c r="D30">
+        <v>89.271</v>
+      </c>
+      <c r="E30">
+        <v>NaN</v>
+      </c>
+      <c r="F30">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Fundament - 1100mm (LF06)</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>33a3f756-639b-4c77-a824-5af83861046b-000e18f6</v>
+      </c>
+      <c r="D31">
+        <v>4.125</v>
+      </c>
+      <c r="E31">
+        <v>NaN</v>
+      </c>
+      <c r="F31">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Fundament - 900mm (LF25)</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>bd94f0b1-f2af-4815-bde5-04c3ce22a275-000e3b99</v>
+      </c>
+      <c r="D32">
+        <v>5.381</v>
+      </c>
+      <c r="E32">
+        <v>NaN</v>
+      </c>
+      <c r="F32">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Fundament - 650mm (LF33)</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182ad4</v>
+      </c>
+      <c r="D33">
+        <v>15.056999999999999</v>
+      </c>
+      <c r="E33">
+        <v>NaN</v>
+      </c>
+      <c r="F33">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Fundament - 1200mm (LF09)</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4d3f9e48-4dbc-4dc0-8d78-54413d95e883-00152892</v>
+      </c>
+      <c r="D34">
+        <v>17.717</v>
+      </c>
+      <c r="E34">
+        <v>NaN</v>
+      </c>
+      <c r="F34">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Fundament - 600mm (LF31)</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e574f</v>
+      </c>
+      <c r="D35">
+        <v>0.952</v>
+      </c>
+      <c r="E35">
+        <v>NaN</v>
+      </c>
+      <c r="F35">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fundament - 1200mm (LF42)</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e581f</v>
+      </c>
+      <c r="D36">
+        <v>1.298</v>
+      </c>
+      <c r="E36">
+        <v>NaN</v>
+      </c>
+      <c r="F36">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Fundament - 850mm (LF30)</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5947</v>
+      </c>
+      <c r="D37">
+        <v>1.872</v>
+      </c>
+      <c r="E37">
+        <v>NaN</v>
+      </c>
+      <c r="F37">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Fundament - 850mm (LF26)</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5b35</v>
+      </c>
+      <c r="D38">
+        <v>4.613</v>
+      </c>
+      <c r="E38">
+        <v>NaN</v>
+      </c>
+      <c r="F38">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Fundament - 1100mm (LF27)</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5c73</v>
+      </c>
+      <c r="D39">
+        <v>5.944</v>
+      </c>
+      <c r="E39">
+        <v>NaN</v>
+      </c>
+      <c r="F39">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Fundament - 850mm (LF28)</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5d4c</v>
+      </c>
+      <c r="D40">
+        <v>4.275</v>
+      </c>
+      <c r="E40">
+        <v>NaN</v>
+      </c>
+      <c r="F40">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Fundament - Tunnel Nord - 600mm (LF50)</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f241</v>
+      </c>
+      <c r="D41">
+        <v>46.467999999999996</v>
+      </c>
+      <c r="E41">
+        <v>NaN</v>
+      </c>
+      <c r="F41">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Fundament - Tunnel Nord - 135mm (LF50)</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f348</v>
+      </c>
+      <c r="D42">
+        <v>18.75</v>
+      </c>
+      <c r="E42">
+        <v>NaN</v>
+      </c>
+      <c r="F42">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fundament - 750mm (LF13)</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>36468402-17ce-4e88-b207-0d97339a29b1-000fb8ac</v>
+      </c>
+      <c r="D43">
+        <v>7.54</v>
+      </c>
+      <c r="E43">
+        <v>NaN</v>
+      </c>
+      <c r="F43">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fundament - 1000mm (LF11)</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>c177e4e4-0276-43da-ba01-23ece77a4953-00169c2d</v>
+      </c>
+      <c r="D44">
+        <v>28.568</v>
+      </c>
+      <c r="E44">
+        <v>NaN</v>
+      </c>
+      <c r="F44">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fundament - 650mm (LF29)</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>0924f267-f769-44f3-bf47-cad379070fbe-000fd5f0</v>
+      </c>
+      <c r="D45">
+        <v>9.387</v>
+      </c>
+      <c r="E45">
+        <v>NaN</v>
+      </c>
+      <c r="F45">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fundament - Tunnel Nord - 425mm (LF51)</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>c6ab6079-6787-4ef3-a2b0-1bbbbcdacae1-000ff8ac</v>
+      </c>
+      <c r="D46">
+        <v>6.588</v>
+      </c>
+      <c r="E46">
+        <v>NaN</v>
+      </c>
+      <c r="F46">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Fundament - 1500mm (LF04)</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>c2497967-5e5c-4feb-b24d-95516e4409eb-00113353</v>
+      </c>
+      <c r="D47">
+        <v>30.102999999999998</v>
+      </c>
+      <c r="E47">
+        <v>NaN</v>
+      </c>
+      <c r="F47">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fundament - 750mm (LF14)</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-001010ad</v>
+      </c>
+      <c r="D48">
+        <v>0.585</v>
+      </c>
+      <c r="E48">
+        <v>NaN</v>
+      </c>
+      <c r="F48">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fundament - 1500mm (LF01)</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-00101a4e</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>NaN</v>
+      </c>
+      <c r="F49">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Fundament - 1500mm (LF02)</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102021</v>
+      </c>
+      <c r="D50">
+        <v>24.448</v>
+      </c>
+      <c r="E50">
+        <v>NaN</v>
+      </c>
+      <c r="F50">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fundament - 1500mm (LF03)</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001022f0</v>
+      </c>
+      <c r="D51">
+        <v>24.448</v>
+      </c>
+      <c r="E51">
+        <v>NaN</v>
+      </c>
+      <c r="F51">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Fundament - 1500mm (LF05)</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001023d3</v>
+      </c>
+      <c r="D52">
+        <v>24.438</v>
+      </c>
+      <c r="E52">
+        <v>NaN</v>
+      </c>
+      <c r="F52">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Fundament - 650mm (LF23)</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102620</v>
+      </c>
+      <c r="D53">
+        <v>2.513</v>
+      </c>
+      <c r="E53">
+        <v>NaN</v>
+      </c>
+      <c r="F53">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Fundament - 600mm (LF41)</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102baa</v>
+      </c>
+      <c r="D54">
+        <v>3.694</v>
+      </c>
+      <c r="E54">
+        <v>NaN</v>
+      </c>
+      <c r="F54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Fundament - 900mm (LF40)</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>d6443891-42aa-47f8-a090-0a5cd65e2b8c-00103187</v>
+      </c>
+      <c r="D55">
+        <v>4.785</v>
+      </c>
+      <c r="E55">
+        <v>NaN</v>
+      </c>
+      <c r="F55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 180mm</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea27</v>
+      </c>
+      <c r="D56">
+        <v>18.16</v>
+      </c>
+      <c r="E56">
+        <v>NaN</v>
+      </c>
+      <c r="F56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>In-Situvæg - elevatorgrubbe - 385mm</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea25</v>
+      </c>
+      <c r="D57">
+        <v>6.464</v>
+      </c>
+      <c r="E57">
+        <v>NaN</v>
+      </c>
+      <c r="F57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 240mm</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea29</v>
+      </c>
+      <c r="D58">
+        <v>4.56</v>
+      </c>
+      <c r="E58">
+        <v>NaN</v>
+      </c>
+      <c r="F58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 300mm</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-00116943</v>
+      </c>
+      <c r="D59">
+        <v>54.775</v>
+      </c>
+      <c r="E59">
+        <v>NaN</v>
+      </c>
+      <c r="F59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117901</v>
+      </c>
+      <c r="D60">
+        <v>57.48400000000001</v>
+      </c>
+      <c r="E60">
+        <v>NaN</v>
+      </c>
+      <c r="F60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fundament - Tunnel SYD - 600mm (LF60)</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117905</v>
+      </c>
+      <c r="D61">
+        <v>19.503</v>
+      </c>
+      <c r="E61">
+        <v>NaN</v>
+      </c>
+      <c r="F61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>insitu Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-001169de</v>
+      </c>
+      <c r="D62">
+        <v>1.937</v>
+      </c>
+      <c r="E62">
+        <v>NaN</v>
+      </c>
+      <c r="F62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Fundament - 1100mm (LF08)</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>5392bb32-8aab-43c3-97f0-b6109bfbb257-0018cb48</v>
+      </c>
+      <c r="D63">
+        <v>10.725</v>
+      </c>
+      <c r="E63">
+        <v>NaN</v>
+      </c>
+      <c r="F63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Fundament - 1200mm (LF10)</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>d150203d-e4ab-40ad-964f-e4189d92bafa-0011af1c</v>
+      </c>
+      <c r="D64">
+        <v>10.939</v>
+      </c>
+      <c r="E64">
+        <v>NaN</v>
+      </c>
+      <c r="F64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Fundament - 2200mm (PF01)</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-00123165</v>
+      </c>
+      <c r="D65">
+        <v>2.75</v>
+      </c>
+      <c r="E65">
+        <v>NaN</v>
+      </c>
+      <c r="F65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Fundament - 2100mm (PF02)</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012313c</v>
+      </c>
+      <c r="D66">
+        <v>2.625</v>
+      </c>
+      <c r="E66">
+        <v>NaN</v>
+      </c>
+      <c r="F66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Fundament - 2000mm (PF04)</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-001231b9</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67">
+        <v>NaN</v>
+      </c>
+      <c r="F67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Fundament - 800mm (LF17)</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012329c</v>
+      </c>
+      <c r="D68">
+        <v>3.575</v>
+      </c>
+      <c r="E68">
+        <v>NaN</v>
+      </c>
+      <c r="F68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Fundament - 900mm (LF37)</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="str">
+        <v>b51d19fa-a904-4d64-92d8-330c3e2e0eae-0014f699</v>
+      </c>
+      <c r="D69">
+        <v>15.008</v>
+      </c>
+      <c r="E69">
+        <v>NaN</v>
+      </c>
+      <c r="F69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Fundament - 1000mm (PF08)</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001277e8</v>
+      </c>
+      <c r="D70">
+        <v>4.05</v>
+      </c>
+      <c r="E70">
+        <v>NaN</v>
+      </c>
+      <c r="F70">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Fundament - 1800mm (PF06)</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001278df</v>
+      </c>
+      <c r="D71">
+        <v>2.7</v>
+      </c>
+      <c r="E71">
+        <v>NaN</v>
+      </c>
+      <c r="F71">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Fundament - 1600mm (PF05)</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>05726df2-4f2a-4328-bc50-51811656c723-00127e1a</v>
+      </c>
+      <c r="D72">
+        <v>1.6</v>
+      </c>
+      <c r="E72">
+        <v>NaN</v>
+      </c>
+      <c r="F72">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Fundament - 2100mm (PF03)</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>b73e362f-1901-4835-abf6-ec907a809918-0012a24a</v>
+      </c>
+      <c r="D73">
+        <v>1.533</v>
+      </c>
+      <c r="E73">
+        <v>NaN</v>
+      </c>
+      <c r="F73">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Fundament - 1600mm (PF07)</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012c2f0</v>
+      </c>
+      <c r="D74">
+        <v>17.92</v>
+      </c>
+      <c r="E74">
+        <v>NaN</v>
+      </c>
+      <c r="F74">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Fundament - 650mm (LF22)</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012ca89</v>
+      </c>
+      <c r="D75">
+        <v>2.712</v>
+      </c>
+      <c r="E75">
+        <v>NaN</v>
+      </c>
+      <c r="F75">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Fundament - 500mm (LF16)</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013c509</v>
+      </c>
+      <c r="D76">
+        <v>0.765</v>
+      </c>
+      <c r="E76">
+        <v>NaN</v>
+      </c>
+      <c r="F76">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Fundament - 400mm (LF15)</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013d1b5</v>
+      </c>
+      <c r="D77">
+        <v>9.854</v>
+      </c>
+      <c r="E77">
+        <v>NaN</v>
+      </c>
+      <c r="F77">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Fundament - 480mm (PF03)</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>edfa0503-934e-4b88-9307-93b917b842ac-0013e6d2</v>
+      </c>
+      <c r="D78">
+        <v>0.13</v>
+      </c>
+      <c r="E78">
+        <v>NaN</v>
+      </c>
+      <c r="F78">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Fundament - 900mm (FL38)</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1faf22a1-8d9f-42fd-8039-23175f892b9f-0014cd9e</v>
+      </c>
+      <c r="D79">
+        <v>2.752</v>
+      </c>
+      <c r="E79">
+        <v>NaN</v>
+      </c>
+      <c r="F79">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Fundament - 650mm (LF34)</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <v>33fd104a-8240-4544-a9c3-0760488e28c6-0014e3ea</v>
+      </c>
+      <c r="D80">
+        <v>16.46</v>
+      </c>
+      <c r="E80">
+        <v>NaN</v>
+      </c>
+      <c r="F80">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Fundament - 650mm (LF35)</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <v>c7fa93e0-ed40-44ab-ab8b-23b9361088bd-0014d618</v>
+      </c>
+      <c r="D81">
+        <v>2.6189999999999998</v>
+      </c>
+      <c r="E81">
+        <v>NaN</v>
+      </c>
+      <c r="F81">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Fundament - 900mm (LF20)</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-00150072</v>
+      </c>
+      <c r="D82">
+        <v>18.684</v>
+      </c>
+      <c r="E82">
+        <v>NaN</v>
+      </c>
+      <c r="F82">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Fundament - 900mm (FL21)</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-0014ffd4</v>
+      </c>
+      <c r="D83">
+        <v>17.795</v>
+      </c>
+      <c r="E83">
+        <v>NaN</v>
+      </c>
+      <c r="F83">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>In-Situvæg - 240mm</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-0015445f</v>
+      </c>
+      <c r="D84">
+        <v>17.829</v>
+      </c>
+      <c r="E84">
+        <v>NaN</v>
+      </c>
+      <c r="F84">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Fundament - 420mm (LF19)</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <v>8242dcf1-6a1c-45b6-8e2b-a66eb0d64926-00168d80</v>
+      </c>
+      <c r="D85">
+        <v>3.6</v>
+      </c>
+      <c r="E85">
+        <v>NaN</v>
+      </c>
+      <c r="F85">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Grovbeton - 650mm (GF33)</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182cc0</v>
+      </c>
+      <c r="D86">
+        <v>4.925000000000001</v>
+      </c>
+      <c r="E86">
+        <v>NaN</v>
+      </c>
+      <c r="F86">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Beton sternelement - 180mm</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="str">
+        <v>4f6dab03-67e9-4402-a933-0f0ff01428c6-0018229a</v>
+      </c>
+      <c r="D87">
+        <v>51.361</v>
+      </c>
+      <c r="E87">
+        <v>NaN</v>
+      </c>
+      <c r="F87">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Grovbeton - 1200mm (GF09)</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="str">
+        <v>07bacce6-92c6-4bfb-8a64-1913d5b89391-002db3d7</v>
+      </c>
+      <c r="D88">
+        <v>1.7</v>
+      </c>
+      <c r="E88">
+        <v>NaN</v>
+      </c>
+      <c r="F88">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Grovbeton - 650mm (GF34)</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00183108</v>
+      </c>
+      <c r="D89">
+        <v>0.995</v>
+      </c>
+      <c r="E89">
+        <v>NaN</v>
+      </c>
+      <c r="F89">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Grovbeton - 1100mm (GF08)</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0886</v>
+      </c>
+      <c r="D90">
+        <v>2.393</v>
+      </c>
+      <c r="E90">
+        <v>NaN</v>
+      </c>
+      <c r="F90">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Grovbeton - 500mm (GF16)</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2085092f-6c33-4e69-bafa-776c9a64fd4a-00184876</v>
+      </c>
+      <c r="D91">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="E91">
+        <v>NaN</v>
+      </c>
+      <c r="F91">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Grovbeton - 650mm (GF35)</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <v>b8aa9d65-851e-4ede-bdd8-fec59d7ce6d2-00185c56</v>
+      </c>
+      <c r="D92">
+        <v>0.637</v>
+      </c>
+      <c r="E92">
+        <v>NaN</v>
+      </c>
+      <c r="F92">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Grovbeton - 750mm (GF13)</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bf6a1</v>
+      </c>
+      <c r="D93">
+        <v>8.49</v>
+      </c>
+      <c r="E93">
+        <v>NaN</v>
+      </c>
+      <c r="F93">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Grovbeton - 1500mm (GF04)</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
+        <v>be4d29db-8331-4d5a-bdfa-b693835d3c09-00192ead</v>
+      </c>
+      <c r="D94">
+        <v>1.072</v>
+      </c>
+      <c r="E94">
+        <v>NaN</v>
+      </c>
+      <c r="F94">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Fundament - Tunnel syd - 425mm (LF61)</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
+        <v>e8032f2e-d1ca-46d2-bb63-8b8f019712b1-001b18c3</v>
+      </c>
+      <c r="D95">
+        <v>1.152</v>
+      </c>
+      <c r="E95">
+        <v>NaN</v>
+      </c>
+      <c r="F95">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Grovbeton støttemur - 3000mm</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="str">
+        <v>8f0153ce-c875-4515-b993-67d57cf7c399-001b3ab2</v>
+      </c>
+      <c r="D96">
+        <v>21.276000000000003</v>
+      </c>
+      <c r="E96">
+        <v>NaN</v>
+      </c>
+      <c r="F96">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Grovbeton - 600mm (GF50)</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>072ac9bd-ab8f-4d57-b8f4-71a5ab47a5c0-001d3ba2</v>
+      </c>
+      <c r="D97">
+        <v>17.2</v>
+      </c>
+      <c r="E97">
+        <v>NaN</v>
+      </c>
+      <c r="F97">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Grovbeton - 900mm (GF40)</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bfc86</v>
+      </c>
+      <c r="D98">
+        <v>0.81</v>
+      </c>
+      <c r="E98">
+        <v>NaN</v>
+      </c>
+      <c r="F98">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Grovbeton - 1200mm (GF10)</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bffaa</v>
+      </c>
+      <c r="D99">
+        <v>0.81</v>
+      </c>
+      <c r="E99">
+        <v>NaN</v>
+      </c>
+      <c r="F99">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Grovbeton - 650mm (GF22)</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0366</v>
+      </c>
+      <c r="D100">
+        <v>1.053</v>
+      </c>
+      <c r="E100">
+        <v>NaN</v>
+      </c>
+      <c r="F100">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Grovbeton - 600mm (GF60)</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="str">
+        <v>21905e4b-ef08-4641-8e64-f24d74341b88-001d41a3</v>
+      </c>
+      <c r="D101">
+        <v>23.250999999999998</v>
+      </c>
+      <c r="E101">
+        <v>NaN</v>
+      </c>
+      <c r="F101">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Grovbeton -1000mm (GF11)</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="str">
+        <v>46ba8c82-64bf-4957-a37e-9406a9a975b0-001d3332</v>
+      </c>
+      <c r="D102">
+        <v>2.767</v>
+      </c>
+      <c r="E102">
+        <v>NaN</v>
+      </c>
+      <c r="F102">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>element Tunnel Nord udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>0c80cdbb-72a6-403a-aab0-91697da3fc7f-001ef6b7</v>
+      </c>
+      <c r="D103">
+        <v>1.448</v>
+      </c>
+      <c r="E103">
+        <v>NaN</v>
+      </c>
+      <c r="F103">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>element Tunnel SYD udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>47474339-5d9c-4284-98cf-b4e17f34b79c-0028facb</v>
+      </c>
+      <c r="D104">
+        <v>1.352</v>
+      </c>
+      <c r="E104">
+        <v>NaN</v>
+      </c>
+      <c r="F104">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>In-Situvæg - kælder indervæg - 350mm</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>b2743f51-29b8-44db-bdc1-046547ceb7a0-001fc849</v>
+      </c>
+      <c r="D105">
+        <v>7.231</v>
+      </c>
+      <c r="E105">
+        <v>NaN</v>
+      </c>
+      <c r="F105">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Konsolh 250 ved modul 8-C- på 180mm væg</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228242</v>
+      </c>
+      <c r="D106">
+        <v>0.234</v>
+      </c>
+      <c r="E106">
+        <v>NaN</v>
+      </c>
+      <c r="F106">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Konsolh 250 ved modul 8-B- på 180mm væg</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228244</v>
+      </c>
+      <c r="D107">
+        <v>0.282</v>
+      </c>
+      <c r="E107">
+        <v>NaN</v>
+      </c>
+      <c r="F107">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Konsolh 250 ved modul 9-B- på 250mm væg</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <v>efb93b84-2f8f-45e3-bb27-c36b359330a1-00249052</v>
+      </c>
+      <c r="D108">
+        <v>0.06</v>
+      </c>
+      <c r="E108">
+        <v>NaN</v>
+      </c>
+      <c r="F108">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Beton vægelement - 330mm - eksisterende</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <v>b904f41b-99ce-4c58-bfb0-7099f0aa27d9-0026c1ab</v>
+      </c>
+      <c r="D109">
+        <v>22.192</v>
+      </c>
+      <c r="E109">
+        <v>NaN</v>
+      </c>
+      <c r="F109">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>In-Situvæg - kælder ydervæg - 65mm</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <v>e3470352-9677-42bf-b501-4dd1c33bc67c-0028984b</v>
+      </c>
+      <c r="D110">
+        <v>1.454</v>
+      </c>
+      <c r="E110">
+        <v>NaN</v>
+      </c>
+      <c r="F110">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F110"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,81 +2639,367 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Huldæk - 180mm</v>
+        <v>Huldæk - 320mm</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e695</v>
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf447</v>
       </c>
       <c r="D2">
-        <v>54.391</v>
+        <v>5074.367</v>
       </c>
       <c r="E2">
-        <v>299150.5</v>
+        <v>NaN</v>
       </c>
       <c r="F2">
-        <v>27.1955</v>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>In-Situ Dæk - 600mm</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e01e</v>
+      </c>
+      <c r="D3">
+        <v>49.142</v>
+      </c>
+      <c r="E3">
+        <v>NaN</v>
+      </c>
+      <c r="F3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>In-Situ Dæk - 850mm</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e0f0</v>
+      </c>
+      <c r="D4">
+        <v>51.992</v>
+      </c>
+      <c r="E4">
+        <v>NaN</v>
+      </c>
+      <c r="F4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>In-Situ Dæk - 400mm</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>02347880-3549-486a-b0be-10b98f5231c1-000a12a0</v>
+      </c>
+      <c r="D5">
+        <v>128.53699999999998</v>
+      </c>
+      <c r="E5">
+        <v>NaN</v>
+      </c>
+      <c r="F5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Massivt forspændt dæk - 400mm</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1f365000-c712-4bcc-acac-a98ec617ddea-0006f81f</v>
+      </c>
+      <c r="D6">
+        <v>115.05799999999999</v>
+      </c>
+      <c r="E6">
+        <v>NaN</v>
+      </c>
+      <c r="F6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Huldæk - 400mm</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c182</v>
+      </c>
+      <c r="D7">
+        <v>1210.182</v>
+      </c>
+      <c r="E7">
+        <v>NaN</v>
+      </c>
+      <c r="F7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>In-Situ Dæk - 320mm</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b16c</v>
+      </c>
+      <c r="D8">
+        <v>20.52</v>
+      </c>
+      <c r="E8">
+        <v>NaN</v>
+      </c>
+      <c r="F8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Huldæk - 270mm</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ff6de429-be59-4eb0-bbcf-380392c3bdbe-00219f06</v>
+      </c>
+      <c r="D9">
+        <v>982.682</v>
+      </c>
+      <c r="E9">
+        <v>NaN</v>
+      </c>
+      <c r="F9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Huldæk - 220mm</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>cc428e52-d21a-45ba-b69e-05dc6e76d0c4-00097080</v>
+      </c>
+      <c r="D10">
+        <v>40.769999999999996</v>
+      </c>
+      <c r="E10">
+        <v>NaN</v>
+      </c>
+      <c r="F10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Massivdæk - 270mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>15139f1c-cc65-46f5-90d1-11cacb340d0e-000c5650</v>
+      </c>
+      <c r="D11">
+        <v>10.777</v>
+      </c>
+      <c r="E11">
+        <v>NaN</v>
+      </c>
+      <c r="F11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Svømmendedæk - 120mm</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1b91721c-05d8-4a2c-bdff-65801b99a722-000cad34</v>
+      </c>
+      <c r="D12">
+        <v>37.492</v>
+      </c>
+      <c r="E12">
+        <v>NaN</v>
+      </c>
+      <c r="F12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Massivdæk - 220mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf5cf</v>
+      </c>
+      <c r="D13">
+        <v>4.29</v>
+      </c>
+      <c r="E13">
+        <v>NaN</v>
+      </c>
+      <c r="F13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>300mm Hård Isolering</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c3c3</v>
+      </c>
+      <c r="D14">
+        <v>757.145</v>
+      </c>
+      <c r="E14">
+        <v>NaN</v>
+      </c>
+      <c r="F14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>300mm Gruspude</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13df06ee-a86f-404a-832b-757fa8178e9d-0015c9f1</v>
+      </c>
+      <c r="D15">
+        <v>253.765</v>
+      </c>
+      <c r="E15">
+        <v>NaN</v>
+      </c>
+      <c r="F15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>250mm Hård Isolering Tunnel Nord</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc12a</v>
+      </c>
+      <c r="D16">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="E16">
+        <v>NaN</v>
+      </c>
+      <c r="F16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>200mm Gruspude Tunnel Nord</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc133</v>
+      </c>
+      <c r="D17">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="E17">
+        <v>NaN</v>
+      </c>
+      <c r="F17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>250mm Hård Isolering Tunnel Syd</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b557a</v>
+      </c>
+      <c r="D18">
+        <v>30.597</v>
+      </c>
+      <c r="E18">
+        <v>NaN</v>
+      </c>
+      <c r="F18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>200mm Gruspude Tunnel Syd</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b5607</v>
+      </c>
+      <c r="D19">
+        <v>30.351999999999997</v>
+      </c>
+      <c r="E19">
+        <v>NaN</v>
+      </c>
+      <c r="F19">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Basic Roof - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total Area</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Generic - 400mm</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f461</v>
-      </c>
-      <c r="D2">
-        <v>89.26</v>
-      </c>
-      <c r="E2">
-        <v>526634</v>
-      </c>
-      <c r="F2">
-        <v>71.408</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
+    <sheet name="Floor " sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,27 +425,2581 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Exterior - CMU on Mtl. Stud</v>
+        <v>Beton bagvægs sternelement  - 240mm</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="str">
+        <v>06138e42-14cf-4889-81ff-5cb577a97058-00161cb9</v>
+      </c>
+      <c r="D2">
+        <v>921.494</v>
+      </c>
+      <c r="E2">
+        <v>5068217</v>
+      </c>
+      <c r="F2">
+        <v>2764.482</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Beton bagvægs element - 240mm</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>20c97ef1-fb64-41d4-891e-372da3afacf1-00068009</v>
+      </c>
+      <c r="D3">
+        <v>82.593</v>
+      </c>
+      <c r="E3">
+        <v>NaN</v>
+      </c>
+      <c r="F3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Beton vægelement indervæg - 240mm</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="str">
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-00154339</v>
+      </c>
+      <c r="D4">
+        <v>1434.687</v>
+      </c>
+      <c r="E4">
+        <v>NaN</v>
+      </c>
+      <c r="F4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Konsolh 250 ved modul 06-C- på 250mm væg</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <v>66234324-32a0-488c-a570-0d46e40f0cf2-002af2a3</v>
+      </c>
+      <c r="D5">
+        <v>848.377</v>
+      </c>
+      <c r="E5">
+        <v>NaN</v>
+      </c>
+      <c r="F5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Beton vægelement indervæg - 180mm</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" t="str">
+        <v>f6af4370-7487-4380-871e-b8779596a02c-002d10c5</v>
+      </c>
+      <c r="D6">
+        <v>917.3699999999995</v>
+      </c>
+      <c r="E6">
+        <v>NaN</v>
+      </c>
+      <c r="F6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Beton vægelement kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <v>c6896cd4-c49d-464a-8d39-1ce0b0c544f5-002eda95</v>
+      </c>
+      <c r="D7">
+        <v>497.12600000000003</v>
+      </c>
+      <c r="E7">
+        <v>NaN</v>
+      </c>
+      <c r="F7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Beton vægelement kælder ydervæg - 240mm</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <v>933d8c69-e661-4a74-af39-8cd2a78d7843-000b3316</v>
+      </c>
+      <c r="D8">
+        <v>155.57100000000003</v>
+      </c>
+      <c r="E8">
+        <v>NaN</v>
+      </c>
+      <c r="F8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Beton vægelement kælder indervæg - 240mm</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4bdc22ba-8121-4aef-8716-3720bedf332a-0006a562</v>
+      </c>
+      <c r="D9">
+        <v>60.787</v>
+      </c>
+      <c r="E9">
+        <v>NaN</v>
+      </c>
+      <c r="F9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>In-Situvæg - kælder ydervæg - 385mm</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a6fd</v>
+      </c>
+      <c r="D10">
+        <v>17.14</v>
+      </c>
+      <c r="E10">
+        <v>NaN</v>
+      </c>
+      <c r="F10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Beton vægelement kælder ydervæg med konsol - 350mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a79d</v>
+      </c>
+      <c r="D11">
+        <v>31.99</v>
+      </c>
+      <c r="E11">
+        <v>NaN</v>
+      </c>
+      <c r="F11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>In-Situvæg - kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>a1df5231-b149-43dd-80db-48ce65cbaa80-00088d41</v>
+      </c>
+      <c r="D12">
+        <v>45.079</v>
+      </c>
+      <c r="E12">
+        <v>NaN</v>
+      </c>
+      <c r="F12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>In-Situvæg - kælder indervæg - 200mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006a93e</v>
+      </c>
+      <c r="D13">
+        <v>10.969</v>
+      </c>
+      <c r="E13">
+        <v>NaN</v>
+      </c>
+      <c r="F13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beton vægelement kælder indervæg med konsol - 180mm</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ae97</v>
+      </c>
+      <c r="D14">
+        <v>53.592</v>
+      </c>
+      <c r="E14">
+        <v>NaN</v>
+      </c>
+      <c r="F14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Beton vægelement klæder indervæg med konsol - 250mm</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ada4</v>
+      </c>
+      <c r="D15">
+        <v>85.112</v>
+      </c>
+      <c r="E15">
+        <v>NaN</v>
+      </c>
+      <c r="F15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Beton vægelement kælder indervæg - 250mm</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b6f4</v>
+      </c>
+      <c r="D16">
+        <v>179.39100000000002</v>
+      </c>
+      <c r="E16">
+        <v>NaN</v>
+      </c>
+      <c r="F16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Beton vægelement kælder indervæg - 180mm</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15ec039d-4db4-4827-bb77-4dd9e8a53f28-000b7471</v>
+      </c>
+      <c r="D17">
+        <v>137.014</v>
+      </c>
+      <c r="E17">
+        <v>NaN</v>
+      </c>
+      <c r="F17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Beton vægelement kælder indervæg - 350mm</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>db1a974f-73ca-4b64-90a7-45673492e50c-000abbba</v>
+      </c>
+      <c r="D18">
+        <v>127.054</v>
+      </c>
+      <c r="E18">
+        <v>NaN</v>
+      </c>
+      <c r="F18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>In-Situvæg - kælder indervæg - 400mm</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b267</v>
+      </c>
+      <c r="D19">
+        <v>21.296999999999997</v>
+      </c>
+      <c r="E19">
+        <v>NaN</v>
+      </c>
+      <c r="F19">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>In-Situvæg - kælder indervæg - 600mm</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b2b4</v>
+      </c>
+      <c r="D20">
+        <v>26.488</v>
+      </c>
+      <c r="E20">
+        <v>NaN</v>
+      </c>
+      <c r="F20">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>In-Situvæg - kælder indervæg - 850mm</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="C2" t="str">
-        <v>d0a4e193-5aac-4817-a537-159aa8035eb7-0005703a</v>
-      </c>
-      <c r="D2">
-        <v>NaN</v>
-      </c>
-      <c r="E2">
-        <v>NaN</v>
-      </c>
-      <c r="F2">
+      <c r="C21" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b388</v>
+      </c>
+      <c r="D21">
+        <v>62.625</v>
+      </c>
+      <c r="E21">
+        <v>NaN</v>
+      </c>
+      <c r="F21">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 250mm</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b484</v>
+      </c>
+      <c r="D22">
+        <v>167.905</v>
+      </c>
+      <c r="E22">
+        <v>NaN</v>
+      </c>
+      <c r="F22">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Beton bagvægs sternelement - 180mm</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b51b</v>
+      </c>
+      <c r="D23">
+        <v>22.656</v>
+      </c>
+      <c r="E23">
+        <v>NaN</v>
+      </c>
+      <c r="F23">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>In-Situvæg -støttemur 3000mm</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008cfe3</v>
+      </c>
+      <c r="D24">
+        <v>8.544</v>
+      </c>
+      <c r="E24">
+        <v>NaN</v>
+      </c>
+      <c r="F24">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>In-Situvæg -støttemur 400mm</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008d040</v>
+      </c>
+      <c r="D25">
+        <v>113.208</v>
+      </c>
+      <c r="E25">
+        <v>NaN</v>
+      </c>
+      <c r="F25">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Beton vægelement Tunnel Nord ydervæg - 250mm</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" t="str">
+        <v>f05cb4ad-bdc7-49e9-b554-1f03ef927db3-000da2c6</v>
+      </c>
+      <c r="D26">
+        <v>231.086</v>
+      </c>
+      <c r="E26">
+        <v>NaN</v>
+      </c>
+      <c r="F26">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 180mm</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>e8bd54ed-a7de-434a-b593-eab2ec63e1c2-000c94bd</v>
+      </c>
+      <c r="D27">
+        <v>90.355</v>
+      </c>
+      <c r="E27">
+        <v>NaN</v>
+      </c>
+      <c r="F27">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Beton Konsolelement på 250mm kældervæg - 200mm</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>eecbd977-42fd-4ea6-b35b-7f7de2e1df21-0019f090</v>
+      </c>
+      <c r="D28">
+        <v>2.6159999999999997</v>
+      </c>
+      <c r="E28">
+        <v>NaN</v>
+      </c>
+      <c r="F28">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Beton Konsolelement på 180mm kældervæg - 200mm</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>a08858d0-b384-4a54-af49-44123b7b2365-000a633a</v>
+      </c>
+      <c r="D29">
+        <v>2.4459999999999997</v>
+      </c>
+      <c r="E29">
+        <v>NaN</v>
+      </c>
+      <c r="F29">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>In-Situvæg - kælder ydervæg - 500mm</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <v>362aa409-cf52-44d3-95a5-710f5bf483b2-0010e483</v>
+      </c>
+      <c r="D30">
+        <v>89.271</v>
+      </c>
+      <c r="E30">
+        <v>NaN</v>
+      </c>
+      <c r="F30">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Fundament - 1100mm (LF06)</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>33a3f756-639b-4c77-a824-5af83861046b-000e18f6</v>
+      </c>
+      <c r="D31">
+        <v>4.125</v>
+      </c>
+      <c r="E31">
+        <v>NaN</v>
+      </c>
+      <c r="F31">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Fundament - 900mm (LF25)</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>bd94f0b1-f2af-4815-bde5-04c3ce22a275-000e3b99</v>
+      </c>
+      <c r="D32">
+        <v>5.381</v>
+      </c>
+      <c r="E32">
+        <v>NaN</v>
+      </c>
+      <c r="F32">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Fundament - 650mm (LF33)</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182ad4</v>
+      </c>
+      <c r="D33">
+        <v>15.056999999999999</v>
+      </c>
+      <c r="E33">
+        <v>NaN</v>
+      </c>
+      <c r="F33">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Fundament - 1200mm (LF09)</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4d3f9e48-4dbc-4dc0-8d78-54413d95e883-00152892</v>
+      </c>
+      <c r="D34">
+        <v>17.717</v>
+      </c>
+      <c r="E34">
+        <v>NaN</v>
+      </c>
+      <c r="F34">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Fundament - 600mm (LF31)</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e574f</v>
+      </c>
+      <c r="D35">
+        <v>0.952</v>
+      </c>
+      <c r="E35">
+        <v>NaN</v>
+      </c>
+      <c r="F35">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fundament - 1200mm (LF42)</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e581f</v>
+      </c>
+      <c r="D36">
+        <v>1.298</v>
+      </c>
+      <c r="E36">
+        <v>NaN</v>
+      </c>
+      <c r="F36">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Fundament - 850mm (LF30)</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5947</v>
+      </c>
+      <c r="D37">
+        <v>1.872</v>
+      </c>
+      <c r="E37">
+        <v>NaN</v>
+      </c>
+      <c r="F37">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Fundament - 850mm (LF26)</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5b35</v>
+      </c>
+      <c r="D38">
+        <v>4.613</v>
+      </c>
+      <c r="E38">
+        <v>NaN</v>
+      </c>
+      <c r="F38">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Fundament - 1100mm (LF27)</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5c73</v>
+      </c>
+      <c r="D39">
+        <v>5.944</v>
+      </c>
+      <c r="E39">
+        <v>NaN</v>
+      </c>
+      <c r="F39">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Fundament - 850mm (LF28)</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5d4c</v>
+      </c>
+      <c r="D40">
+        <v>4.275</v>
+      </c>
+      <c r="E40">
+        <v>NaN</v>
+      </c>
+      <c r="F40">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Fundament - Tunnel Nord - 600mm (LF50)</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f241</v>
+      </c>
+      <c r="D41">
+        <v>46.467999999999996</v>
+      </c>
+      <c r="E41">
+        <v>NaN</v>
+      </c>
+      <c r="F41">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Fundament - Tunnel Nord - 135mm (LF50)</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f348</v>
+      </c>
+      <c r="D42">
+        <v>18.75</v>
+      </c>
+      <c r="E42">
+        <v>NaN</v>
+      </c>
+      <c r="F42">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fundament - 750mm (LF13)</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>36468402-17ce-4e88-b207-0d97339a29b1-000fb8ac</v>
+      </c>
+      <c r="D43">
+        <v>7.54</v>
+      </c>
+      <c r="E43">
+        <v>NaN</v>
+      </c>
+      <c r="F43">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fundament - 1000mm (LF11)</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>c177e4e4-0276-43da-ba01-23ece77a4953-00169c2d</v>
+      </c>
+      <c r="D44">
+        <v>28.568</v>
+      </c>
+      <c r="E44">
+        <v>NaN</v>
+      </c>
+      <c r="F44">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fundament - 650mm (LF29)</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>0924f267-f769-44f3-bf47-cad379070fbe-000fd5f0</v>
+      </c>
+      <c r="D45">
+        <v>9.387</v>
+      </c>
+      <c r="E45">
+        <v>NaN</v>
+      </c>
+      <c r="F45">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fundament - Tunnel Nord - 425mm (LF51)</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>c6ab6079-6787-4ef3-a2b0-1bbbbcdacae1-000ff8ac</v>
+      </c>
+      <c r="D46">
+        <v>6.588</v>
+      </c>
+      <c r="E46">
+        <v>NaN</v>
+      </c>
+      <c r="F46">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Fundament - 1500mm (LF04)</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>c2497967-5e5c-4feb-b24d-95516e4409eb-00113353</v>
+      </c>
+      <c r="D47">
+        <v>30.102999999999998</v>
+      </c>
+      <c r="E47">
+        <v>NaN</v>
+      </c>
+      <c r="F47">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fundament - 750mm (LF14)</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-001010ad</v>
+      </c>
+      <c r="D48">
+        <v>0.585</v>
+      </c>
+      <c r="E48">
+        <v>NaN</v>
+      </c>
+      <c r="F48">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fundament - 1500mm (LF01)</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-00101a4e</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>NaN</v>
+      </c>
+      <c r="F49">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Fundament - 1500mm (LF02)</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102021</v>
+      </c>
+      <c r="D50">
+        <v>24.448</v>
+      </c>
+      <c r="E50">
+        <v>NaN</v>
+      </c>
+      <c r="F50">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fundament - 1500mm (LF03)</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001022f0</v>
+      </c>
+      <c r="D51">
+        <v>24.448</v>
+      </c>
+      <c r="E51">
+        <v>NaN</v>
+      </c>
+      <c r="F51">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Fundament - 1500mm (LF05)</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001023d3</v>
+      </c>
+      <c r="D52">
+        <v>24.438</v>
+      </c>
+      <c r="E52">
+        <v>NaN</v>
+      </c>
+      <c r="F52">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Fundament - 650mm (LF23)</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102620</v>
+      </c>
+      <c r="D53">
+        <v>2.513</v>
+      </c>
+      <c r="E53">
+        <v>NaN</v>
+      </c>
+      <c r="F53">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Fundament - 600mm (LF41)</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102baa</v>
+      </c>
+      <c r="D54">
+        <v>3.694</v>
+      </c>
+      <c r="E54">
+        <v>NaN</v>
+      </c>
+      <c r="F54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Fundament - 900mm (LF40)</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>d6443891-42aa-47f8-a090-0a5cd65e2b8c-00103187</v>
+      </c>
+      <c r="D55">
+        <v>4.785</v>
+      </c>
+      <c r="E55">
+        <v>NaN</v>
+      </c>
+      <c r="F55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 180mm</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea27</v>
+      </c>
+      <c r="D56">
+        <v>18.16</v>
+      </c>
+      <c r="E56">
+        <v>NaN</v>
+      </c>
+      <c r="F56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>In-Situvæg - elevatorgrubbe - 385mm</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea25</v>
+      </c>
+      <c r="D57">
+        <v>6.464</v>
+      </c>
+      <c r="E57">
+        <v>NaN</v>
+      </c>
+      <c r="F57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 240mm</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea29</v>
+      </c>
+      <c r="D58">
+        <v>4.56</v>
+      </c>
+      <c r="E58">
+        <v>NaN</v>
+      </c>
+      <c r="F58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 300mm</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-00116943</v>
+      </c>
+      <c r="D59">
+        <v>54.775</v>
+      </c>
+      <c r="E59">
+        <v>NaN</v>
+      </c>
+      <c r="F59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117901</v>
+      </c>
+      <c r="D60">
+        <v>57.48400000000001</v>
+      </c>
+      <c r="E60">
+        <v>NaN</v>
+      </c>
+      <c r="F60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fundament - Tunnel SYD - 600mm (LF60)</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117905</v>
+      </c>
+      <c r="D61">
+        <v>19.503</v>
+      </c>
+      <c r="E61">
+        <v>NaN</v>
+      </c>
+      <c r="F61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>insitu Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-001169de</v>
+      </c>
+      <c r="D62">
+        <v>1.937</v>
+      </c>
+      <c r="E62">
+        <v>NaN</v>
+      </c>
+      <c r="F62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Fundament - 1100mm (LF08)</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>5392bb32-8aab-43c3-97f0-b6109bfbb257-0018cb48</v>
+      </c>
+      <c r="D63">
+        <v>10.725</v>
+      </c>
+      <c r="E63">
+        <v>NaN</v>
+      </c>
+      <c r="F63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Fundament - 1200mm (LF10)</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>d150203d-e4ab-40ad-964f-e4189d92bafa-0011af1c</v>
+      </c>
+      <c r="D64">
+        <v>10.939</v>
+      </c>
+      <c r="E64">
+        <v>NaN</v>
+      </c>
+      <c r="F64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Fundament - 2200mm (PF01)</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-00123165</v>
+      </c>
+      <c r="D65">
+        <v>2.75</v>
+      </c>
+      <c r="E65">
+        <v>NaN</v>
+      </c>
+      <c r="F65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Fundament - 2100mm (PF02)</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012313c</v>
+      </c>
+      <c r="D66">
+        <v>2.625</v>
+      </c>
+      <c r="E66">
+        <v>NaN</v>
+      </c>
+      <c r="F66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Fundament - 2000mm (PF04)</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-001231b9</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67">
+        <v>NaN</v>
+      </c>
+      <c r="F67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Fundament - 800mm (LF17)</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012329c</v>
+      </c>
+      <c r="D68">
+        <v>3.575</v>
+      </c>
+      <c r="E68">
+        <v>NaN</v>
+      </c>
+      <c r="F68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Fundament - 900mm (LF37)</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="str">
+        <v>b51d19fa-a904-4d64-92d8-330c3e2e0eae-0014f699</v>
+      </c>
+      <c r="D69">
+        <v>15.008</v>
+      </c>
+      <c r="E69">
+        <v>NaN</v>
+      </c>
+      <c r="F69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Fundament - 1000mm (PF08)</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001277e8</v>
+      </c>
+      <c r="D70">
+        <v>4.05</v>
+      </c>
+      <c r="E70">
+        <v>NaN</v>
+      </c>
+      <c r="F70">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Fundament - 1800mm (PF06)</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001278df</v>
+      </c>
+      <c r="D71">
+        <v>2.7</v>
+      </c>
+      <c r="E71">
+        <v>NaN</v>
+      </c>
+      <c r="F71">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Fundament - 1600mm (PF05)</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>05726df2-4f2a-4328-bc50-51811656c723-00127e1a</v>
+      </c>
+      <c r="D72">
+        <v>1.6</v>
+      </c>
+      <c r="E72">
+        <v>NaN</v>
+      </c>
+      <c r="F72">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Fundament - 2100mm (PF03)</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>b73e362f-1901-4835-abf6-ec907a809918-0012a24a</v>
+      </c>
+      <c r="D73">
+        <v>1.533</v>
+      </c>
+      <c r="E73">
+        <v>NaN</v>
+      </c>
+      <c r="F73">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Fundament - 1600mm (PF07)</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012c2f0</v>
+      </c>
+      <c r="D74">
+        <v>17.92</v>
+      </c>
+      <c r="E74">
+        <v>NaN</v>
+      </c>
+      <c r="F74">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Fundament - 650mm (LF22)</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012ca89</v>
+      </c>
+      <c r="D75">
+        <v>2.712</v>
+      </c>
+      <c r="E75">
+        <v>NaN</v>
+      </c>
+      <c r="F75">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Fundament - 500mm (LF16)</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013c509</v>
+      </c>
+      <c r="D76">
+        <v>0.765</v>
+      </c>
+      <c r="E76">
+        <v>NaN</v>
+      </c>
+      <c r="F76">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Fundament - 400mm (LF15)</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013d1b5</v>
+      </c>
+      <c r="D77">
+        <v>9.854</v>
+      </c>
+      <c r="E77">
+        <v>NaN</v>
+      </c>
+      <c r="F77">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Fundament - 480mm (PF03)</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>edfa0503-934e-4b88-9307-93b917b842ac-0013e6d2</v>
+      </c>
+      <c r="D78">
+        <v>0.13</v>
+      </c>
+      <c r="E78">
+        <v>NaN</v>
+      </c>
+      <c r="F78">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Fundament - 900mm (FL38)</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1faf22a1-8d9f-42fd-8039-23175f892b9f-0014cd9e</v>
+      </c>
+      <c r="D79">
+        <v>2.752</v>
+      </c>
+      <c r="E79">
+        <v>NaN</v>
+      </c>
+      <c r="F79">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Fundament - 650mm (LF34)</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <v>33fd104a-8240-4544-a9c3-0760488e28c6-0014e3ea</v>
+      </c>
+      <c r="D80">
+        <v>16.46</v>
+      </c>
+      <c r="E80">
+        <v>NaN</v>
+      </c>
+      <c r="F80">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Fundament - 650mm (LF35)</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <v>c7fa93e0-ed40-44ab-ab8b-23b9361088bd-0014d618</v>
+      </c>
+      <c r="D81">
+        <v>2.6189999999999998</v>
+      </c>
+      <c r="E81">
+        <v>NaN</v>
+      </c>
+      <c r="F81">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Fundament - 900mm (LF20)</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-00150072</v>
+      </c>
+      <c r="D82">
+        <v>18.684</v>
+      </c>
+      <c r="E82">
+        <v>NaN</v>
+      </c>
+      <c r="F82">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Fundament - 900mm (FL21)</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-0014ffd4</v>
+      </c>
+      <c r="D83">
+        <v>17.795</v>
+      </c>
+      <c r="E83">
+        <v>NaN</v>
+      </c>
+      <c r="F83">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>In-Situvæg - 240mm</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-0015445f</v>
+      </c>
+      <c r="D84">
+        <v>17.829</v>
+      </c>
+      <c r="E84">
+        <v>NaN</v>
+      </c>
+      <c r="F84">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Fundament - 420mm (LF19)</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <v>8242dcf1-6a1c-45b6-8e2b-a66eb0d64926-00168d80</v>
+      </c>
+      <c r="D85">
+        <v>3.6</v>
+      </c>
+      <c r="E85">
+        <v>NaN</v>
+      </c>
+      <c r="F85">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Grovbeton - 650mm (GF33)</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182cc0</v>
+      </c>
+      <c r="D86">
+        <v>4.925000000000001</v>
+      </c>
+      <c r="E86">
+        <v>NaN</v>
+      </c>
+      <c r="F86">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Beton sternelement - 180mm</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="str">
+        <v>4f6dab03-67e9-4402-a933-0f0ff01428c6-0018229a</v>
+      </c>
+      <c r="D87">
+        <v>51.361</v>
+      </c>
+      <c r="E87">
+        <v>NaN</v>
+      </c>
+      <c r="F87">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Grovbeton - 1200mm (GF09)</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="str">
+        <v>07bacce6-92c6-4bfb-8a64-1913d5b89391-002db3d7</v>
+      </c>
+      <c r="D88">
+        <v>1.7</v>
+      </c>
+      <c r="E88">
+        <v>NaN</v>
+      </c>
+      <c r="F88">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Grovbeton - 650mm (GF34)</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00183108</v>
+      </c>
+      <c r="D89">
+        <v>0.995</v>
+      </c>
+      <c r="E89">
+        <v>NaN</v>
+      </c>
+      <c r="F89">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Grovbeton - 1100mm (GF08)</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0886</v>
+      </c>
+      <c r="D90">
+        <v>2.393</v>
+      </c>
+      <c r="E90">
+        <v>NaN</v>
+      </c>
+      <c r="F90">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Grovbeton - 500mm (GF16)</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2085092f-6c33-4e69-bafa-776c9a64fd4a-00184876</v>
+      </c>
+      <c r="D91">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="E91">
+        <v>NaN</v>
+      </c>
+      <c r="F91">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Grovbeton - 650mm (GF35)</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <v>b8aa9d65-851e-4ede-bdd8-fec59d7ce6d2-00185c56</v>
+      </c>
+      <c r="D92">
+        <v>0.637</v>
+      </c>
+      <c r="E92">
+        <v>NaN</v>
+      </c>
+      <c r="F92">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Grovbeton - 750mm (GF13)</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bf6a1</v>
+      </c>
+      <c r="D93">
+        <v>8.49</v>
+      </c>
+      <c r="E93">
+        <v>NaN</v>
+      </c>
+      <c r="F93">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Grovbeton - 1500mm (GF04)</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
+        <v>be4d29db-8331-4d5a-bdfa-b693835d3c09-00192ead</v>
+      </c>
+      <c r="D94">
+        <v>1.072</v>
+      </c>
+      <c r="E94">
+        <v>NaN</v>
+      </c>
+      <c r="F94">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Fundament - Tunnel syd - 425mm (LF61)</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
+        <v>e8032f2e-d1ca-46d2-bb63-8b8f019712b1-001b18c3</v>
+      </c>
+      <c r="D95">
+        <v>1.152</v>
+      </c>
+      <c r="E95">
+        <v>NaN</v>
+      </c>
+      <c r="F95">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Grovbeton støttemur - 3000mm</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="str">
+        <v>8f0153ce-c875-4515-b993-67d57cf7c399-001b3ab2</v>
+      </c>
+      <c r="D96">
+        <v>21.276000000000003</v>
+      </c>
+      <c r="E96">
+        <v>NaN</v>
+      </c>
+      <c r="F96">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Grovbeton - 600mm (GF50)</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>072ac9bd-ab8f-4d57-b8f4-71a5ab47a5c0-001d3ba2</v>
+      </c>
+      <c r="D97">
+        <v>17.2</v>
+      </c>
+      <c r="E97">
+        <v>NaN</v>
+      </c>
+      <c r="F97">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Grovbeton - 900mm (GF40)</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bfc86</v>
+      </c>
+      <c r="D98">
+        <v>0.81</v>
+      </c>
+      <c r="E98">
+        <v>NaN</v>
+      </c>
+      <c r="F98">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Grovbeton - 1200mm (GF10)</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bffaa</v>
+      </c>
+      <c r="D99">
+        <v>0.81</v>
+      </c>
+      <c r="E99">
+        <v>NaN</v>
+      </c>
+      <c r="F99">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Grovbeton - 650mm (GF22)</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0366</v>
+      </c>
+      <c r="D100">
+        <v>1.053</v>
+      </c>
+      <c r="E100">
+        <v>NaN</v>
+      </c>
+      <c r="F100">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Grovbeton - 600mm (GF60)</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="str">
+        <v>21905e4b-ef08-4641-8e64-f24d74341b88-001d41a3</v>
+      </c>
+      <c r="D101">
+        <v>23.250999999999998</v>
+      </c>
+      <c r="E101">
+        <v>NaN</v>
+      </c>
+      <c r="F101">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Grovbeton -1000mm (GF11)</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="str">
+        <v>46ba8c82-64bf-4957-a37e-9406a9a975b0-001d3332</v>
+      </c>
+      <c r="D102">
+        <v>2.767</v>
+      </c>
+      <c r="E102">
+        <v>NaN</v>
+      </c>
+      <c r="F102">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>element Tunnel Nord udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>0c80cdbb-72a6-403a-aab0-91697da3fc7f-001ef6b7</v>
+      </c>
+      <c r="D103">
+        <v>1.448</v>
+      </c>
+      <c r="E103">
+        <v>NaN</v>
+      </c>
+      <c r="F103">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>element Tunnel SYD udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>47474339-5d9c-4284-98cf-b4e17f34b79c-0028facb</v>
+      </c>
+      <c r="D104">
+        <v>1.352</v>
+      </c>
+      <c r="E104">
+        <v>NaN</v>
+      </c>
+      <c r="F104">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>In-Situvæg - kælder indervæg - 350mm</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>b2743f51-29b8-44db-bdc1-046547ceb7a0-001fc849</v>
+      </c>
+      <c r="D105">
+        <v>7.231</v>
+      </c>
+      <c r="E105">
+        <v>NaN</v>
+      </c>
+      <c r="F105">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Konsolh 250 ved modul 8-C- på 180mm væg</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228242</v>
+      </c>
+      <c r="D106">
+        <v>0.234</v>
+      </c>
+      <c r="E106">
+        <v>NaN</v>
+      </c>
+      <c r="F106">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Konsolh 250 ved modul 8-B- på 180mm væg</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228244</v>
+      </c>
+      <c r="D107">
+        <v>0.282</v>
+      </c>
+      <c r="E107">
+        <v>NaN</v>
+      </c>
+      <c r="F107">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Konsolh 250 ved modul 9-B- på 250mm væg</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <v>efb93b84-2f8f-45e3-bb27-c36b359330a1-00249052</v>
+      </c>
+      <c r="D108">
+        <v>0.06</v>
+      </c>
+      <c r="E108">
+        <v>NaN</v>
+      </c>
+      <c r="F108">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Beton vægelement - 330mm - eksisterende</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <v>b904f41b-99ce-4c58-bfb0-7099f0aa27d9-0026c1ab</v>
+      </c>
+      <c r="D109">
+        <v>22.192</v>
+      </c>
+      <c r="E109">
+        <v>NaN</v>
+      </c>
+      <c r="F109">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>In-Situvæg - kælder ydervæg - 65mm</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <v>e3470352-9677-42bf-b501-4dd1c33bc67c-0028984b</v>
+      </c>
+      <c r="D110">
+        <v>1.454</v>
+      </c>
+      <c r="E110">
+        <v>NaN</v>
+      </c>
+      <c r="F110">
         <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F110"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Floor - Types</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Sum</v>
+      </c>
+      <c r="C1" t="str">
+        <v>id</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Total Area</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total Hours</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Huldæk - 320mm</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf447</v>
+      </c>
+      <c r="D2">
+        <v>5074.367</v>
+      </c>
+      <c r="E2">
+        <v>NaN</v>
+      </c>
+      <c r="F2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>In-Situ Dæk - 600mm</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e01e</v>
+      </c>
+      <c r="D3">
+        <v>49.142</v>
+      </c>
+      <c r="E3">
+        <v>NaN</v>
+      </c>
+      <c r="F3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>In-Situ Dæk - 850mm</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e0f0</v>
+      </c>
+      <c r="D4">
+        <v>51.992</v>
+      </c>
+      <c r="E4">
+        <v>NaN</v>
+      </c>
+      <c r="F4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>In-Situ Dæk - 400mm</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>02347880-3549-486a-b0be-10b98f5231c1-000a12a0</v>
+      </c>
+      <c r="D5">
+        <v>128.53699999999998</v>
+      </c>
+      <c r="E5">
+        <v>NaN</v>
+      </c>
+      <c r="F5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Massivt forspændt dæk - 400mm</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1f365000-c712-4bcc-acac-a98ec617ddea-0006f81f</v>
+      </c>
+      <c r="D6">
+        <v>115.05799999999999</v>
+      </c>
+      <c r="E6">
+        <v>NaN</v>
+      </c>
+      <c r="F6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Huldæk - 400mm</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c182</v>
+      </c>
+      <c r="D7">
+        <v>1210.182</v>
+      </c>
+      <c r="E7">
+        <v>NaN</v>
+      </c>
+      <c r="F7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>In-Situ Dæk - 320mm</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b16c</v>
+      </c>
+      <c r="D8">
+        <v>20.52</v>
+      </c>
+      <c r="E8">
+        <v>NaN</v>
+      </c>
+      <c r="F8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Huldæk - 270mm</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ff6de429-be59-4eb0-bbcf-380392c3bdbe-00219f06</v>
+      </c>
+      <c r="D9">
+        <v>982.682</v>
+      </c>
+      <c r="E9">
+        <v>NaN</v>
+      </c>
+      <c r="F9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Huldæk - 220mm</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>cc428e52-d21a-45ba-b69e-05dc6e76d0c4-00097080</v>
+      </c>
+      <c r="D10">
+        <v>40.769999999999996</v>
+      </c>
+      <c r="E10">
+        <v>NaN</v>
+      </c>
+      <c r="F10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Massivdæk - 270mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>15139f1c-cc65-46f5-90d1-11cacb340d0e-000c5650</v>
+      </c>
+      <c r="D11">
+        <v>10.777</v>
+      </c>
+      <c r="E11">
+        <v>NaN</v>
+      </c>
+      <c r="F11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Svømmendedæk - 120mm</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1b91721c-05d8-4a2c-bdff-65801b99a722-000cad34</v>
+      </c>
+      <c r="D12">
+        <v>37.492</v>
+      </c>
+      <c r="E12">
+        <v>NaN</v>
+      </c>
+      <c r="F12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Massivdæk - 220mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf5cf</v>
+      </c>
+      <c r="D13">
+        <v>4.29</v>
+      </c>
+      <c r="E13">
+        <v>NaN</v>
+      </c>
+      <c r="F13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>300mm Hård Isolering</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c3c3</v>
+      </c>
+      <c r="D14">
+        <v>757.145</v>
+      </c>
+      <c r="E14">
+        <v>NaN</v>
+      </c>
+      <c r="F14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>300mm Gruspude</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13df06ee-a86f-404a-832b-757fa8178e9d-0015c9f1</v>
+      </c>
+      <c r="D15">
+        <v>253.765</v>
+      </c>
+      <c r="E15">
+        <v>NaN</v>
+      </c>
+      <c r="F15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>250mm Hård Isolering Tunnel Nord</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc12a</v>
+      </c>
+      <c r="D16">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="E16">
+        <v>NaN</v>
+      </c>
+      <c r="F16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>200mm Gruspude Tunnel Nord</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc133</v>
+      </c>
+      <c r="D17">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="E17">
+        <v>NaN</v>
+      </c>
+      <c r="F17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>250mm Hård Isolering Tunnel Syd</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b557a</v>
+      </c>
+      <c r="D18">
+        <v>30.597</v>
+      </c>
+      <c r="E18">
+        <v>NaN</v>
+      </c>
+      <c r="F18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>200mm Gruspude Tunnel Syd</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b5607</v>
+      </c>
+      <c r="D19">
+        <v>30.351999999999997</v>
+      </c>
+      <c r="E19">
+        <v>NaN</v>
+      </c>
+      <c r="F19">
+        <v>NaN</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,12 +414,15 @@
         <v>id</v>
       </c>
       <c r="D1" t="str">
-        <v>Total Area</v>
+        <v>Total</v>
       </c>
       <c r="E1" t="str">
+        <v>Unit</v>
+      </c>
+      <c r="F1" t="str">
         <v>Total Price</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Total Hours</v>
       </c>
     </row>
@@ -434,13 +437,16 @@
         <v>06138e42-14cf-4889-81ff-5cb577a97058-00161cb9</v>
       </c>
       <c r="D2">
-        <v>921.494</v>
-      </c>
-      <c r="E2">
-        <v>5068217</v>
+        <v>197.76500000000001</v>
+      </c>
+      <c r="E2" t="str">
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>2764.482</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -454,13 +460,16 @@
         <v>20c97ef1-fb64-41d4-891e-372da3afacf1-00068009</v>
       </c>
       <c r="D3">
-        <v>82.593</v>
-      </c>
-      <c r="E3">
-        <v>NaN</v>
+        <v>17.461</v>
+      </c>
+      <c r="E3" t="str">
+        <v>no unit</v>
       </c>
       <c r="F3">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -474,13 +483,16 @@
         <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-00154339</v>
       </c>
       <c r="D4">
-        <v>1434.687</v>
-      </c>
-      <c r="E4">
-        <v>NaN</v>
+        <v>343.39</v>
+      </c>
+      <c r="E4" t="str">
+        <v>no unit</v>
       </c>
       <c r="F4">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -494,13 +506,16 @@
         <v>66234324-32a0-488c-a570-0d46e40f0cf2-002af2a3</v>
       </c>
       <c r="D5">
-        <v>848.377</v>
-      </c>
-      <c r="E5">
-        <v>NaN</v>
+        <v>212.09699999999987</v>
+      </c>
+      <c r="E5" t="str">
+        <v>no unit</v>
       </c>
       <c r="F5">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +529,16 @@
         <v>f6af4370-7487-4380-871e-b8779596a02c-002d10c5</v>
       </c>
       <c r="D6">
-        <v>917.3699999999995</v>
-      </c>
-      <c r="E6">
-        <v>NaN</v>
+        <v>165.12799999999993</v>
+      </c>
+      <c r="E6" t="str">
+        <v>no unit</v>
       </c>
       <c r="F6">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -534,13 +552,16 @@
         <v>c6896cd4-c49d-464a-8d39-1ce0b0c544f5-002eda95</v>
       </c>
       <c r="D7">
-        <v>497.12600000000003</v>
-      </c>
-      <c r="E7">
-        <v>NaN</v>
+        <v>173.994</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
       </c>
       <c r="F7">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -554,13 +575,16 @@
         <v>933d8c69-e661-4a74-af39-8cd2a78d7843-000b3316</v>
       </c>
       <c r="D8">
-        <v>155.57100000000003</v>
-      </c>
-      <c r="E8">
-        <v>NaN</v>
+        <v>37.338</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
       </c>
       <c r="F8">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +598,16 @@
         <v>4bdc22ba-8121-4aef-8716-3720bedf332a-0006a562</v>
       </c>
       <c r="D9">
-        <v>60.787</v>
-      </c>
-      <c r="E9">
-        <v>NaN</v>
+        <v>14.589</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
       </c>
       <c r="F9">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -594,13 +621,16 @@
         <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a6fd</v>
       </c>
       <c r="D10">
-        <v>17.14</v>
-      </c>
-      <c r="E10">
-        <v>NaN</v>
+        <v>6.483</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
       </c>
       <c r="F10">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -614,13 +644,16 @@
         <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a79d</v>
       </c>
       <c r="D11">
-        <v>31.99</v>
-      </c>
-      <c r="E11">
-        <v>NaN</v>
+        <v>11.196</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
       </c>
       <c r="F11">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +667,16 @@
         <v>a1df5231-b149-43dd-80db-48ce65cbaa80-00088d41</v>
       </c>
       <c r="D12">
-        <v>45.079</v>
-      </c>
-      <c r="E12">
-        <v>NaN</v>
+        <v>15.777</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
       </c>
       <c r="F12">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -654,13 +690,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006a93e</v>
       </c>
       <c r="D13">
-        <v>10.969</v>
-      </c>
-      <c r="E13">
-        <v>NaN</v>
+        <v>2.194</v>
+      </c>
+      <c r="E13" t="str">
+        <v>no unit</v>
       </c>
       <c r="F13">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -674,13 +713,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ae97</v>
       </c>
       <c r="D14">
-        <v>53.592</v>
-      </c>
-      <c r="E14">
-        <v>NaN</v>
+        <v>9.647</v>
+      </c>
+      <c r="E14" t="str">
+        <v>no unit</v>
       </c>
       <c r="F14">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -694,13 +736,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ada4</v>
       </c>
       <c r="D15">
-        <v>85.112</v>
-      </c>
-      <c r="E15">
-        <v>NaN</v>
+        <v>21.278</v>
+      </c>
+      <c r="E15" t="str">
+        <v>no unit</v>
       </c>
       <c r="F15">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -714,13 +759,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b6f4</v>
       </c>
       <c r="D16">
-        <v>179.39100000000002</v>
-      </c>
-      <c r="E16">
-        <v>NaN</v>
+        <v>44.848</v>
+      </c>
+      <c r="E16" t="str">
+        <v>no unit</v>
       </c>
       <c r="F16">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -734,13 +782,16 @@
         <v>15ec039d-4db4-4827-bb77-4dd9e8a53f28-000b7471</v>
       </c>
       <c r="D17">
-        <v>137.014</v>
-      </c>
-      <c r="E17">
-        <v>NaN</v>
+        <v>24.664</v>
+      </c>
+      <c r="E17" t="str">
+        <v>no unit</v>
       </c>
       <c r="F17">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -754,13 +805,16 @@
         <v>db1a974f-73ca-4b64-90a7-45673492e50c-000abbba</v>
       </c>
       <c r="D18">
-        <v>127.054</v>
-      </c>
-      <c r="E18">
-        <v>NaN</v>
+        <v>44.469</v>
+      </c>
+      <c r="E18" t="str">
+        <v>no unit</v>
       </c>
       <c r="F18">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -774,13 +828,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b267</v>
       </c>
       <c r="D19">
-        <v>21.296999999999997</v>
-      </c>
-      <c r="E19">
-        <v>NaN</v>
+        <v>8.519</v>
+      </c>
+      <c r="E19" t="str">
+        <v>no unit</v>
       </c>
       <c r="F19">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -794,13 +851,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b2b4</v>
       </c>
       <c r="D20">
-        <v>26.488</v>
-      </c>
-      <c r="E20">
-        <v>NaN</v>
+        <v>15.893</v>
+      </c>
+      <c r="E20" t="str">
+        <v>no unit</v>
       </c>
       <c r="F20">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -814,13 +874,16 @@
         <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b388</v>
       </c>
       <c r="D21">
-        <v>62.625</v>
-      </c>
-      <c r="E21">
-        <v>NaN</v>
+        <v>53.232</v>
+      </c>
+      <c r="E21" t="str">
+        <v>no unit</v>
       </c>
       <c r="F21">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -834,13 +897,16 @@
         <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b484</v>
       </c>
       <c r="D22">
-        <v>167.905</v>
-      </c>
-      <c r="E22">
-        <v>NaN</v>
+        <v>41.977000000000004</v>
+      </c>
+      <c r="E22" t="str">
+        <v>no unit</v>
       </c>
       <c r="F22">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -854,13 +920,16 @@
         <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b51b</v>
       </c>
       <c r="D23">
-        <v>22.656</v>
-      </c>
-      <c r="E23">
-        <v>NaN</v>
+        <v>3.768</v>
+      </c>
+      <c r="E23" t="str">
+        <v>no unit</v>
       </c>
       <c r="F23">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -874,13 +943,16 @@
         <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008cfe3</v>
       </c>
       <c r="D24">
-        <v>8.544</v>
-      </c>
-      <c r="E24">
-        <v>NaN</v>
+        <v>25.554</v>
+      </c>
+      <c r="E24" t="str">
+        <v>no unit</v>
       </c>
       <c r="F24">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -894,13 +966,16 @@
         <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008d040</v>
       </c>
       <c r="D25">
-        <v>113.208</v>
-      </c>
-      <c r="E25">
-        <v>NaN</v>
+        <v>43.521</v>
+      </c>
+      <c r="E25" t="str">
+        <v>no unit</v>
       </c>
       <c r="F25">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -914,13 +989,16 @@
         <v>f05cb4ad-bdc7-49e9-b554-1f03ef927db3-000da2c6</v>
       </c>
       <c r="D26">
-        <v>231.086</v>
-      </c>
-      <c r="E26">
-        <v>NaN</v>
+        <v>56.509999999999984</v>
+      </c>
+      <c r="E26" t="str">
+        <v>no unit</v>
       </c>
       <c r="F26">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -934,13 +1012,16 @@
         <v>e8bd54ed-a7de-434a-b593-eab2ec63e1c2-000c94bd</v>
       </c>
       <c r="D27">
-        <v>90.355</v>
-      </c>
-      <c r="E27">
-        <v>NaN</v>
+        <v>16.264</v>
+      </c>
+      <c r="E27" t="str">
+        <v>no unit</v>
       </c>
       <c r="F27">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -954,13 +1035,16 @@
         <v>eecbd977-42fd-4ea6-b35b-7f7de2e1df21-0019f090</v>
       </c>
       <c r="D28">
-        <v>2.6159999999999997</v>
-      </c>
-      <c r="E28">
-        <v>NaN</v>
+        <v>0.523</v>
+      </c>
+      <c r="E28" t="str">
+        <v>no unit</v>
       </c>
       <c r="F28">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -974,13 +1058,16 @@
         <v>a08858d0-b384-4a54-af49-44123b7b2365-000a633a</v>
       </c>
       <c r="D29">
-        <v>2.4459999999999997</v>
-      </c>
-      <c r="E29">
-        <v>NaN</v>
+        <v>0.489</v>
+      </c>
+      <c r="E29" t="str">
+        <v>no unit</v>
       </c>
       <c r="F29">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -994,13 +1081,16 @@
         <v>362aa409-cf52-44d3-95a5-710f5bf483b2-0010e483</v>
       </c>
       <c r="D30">
-        <v>89.271</v>
-      </c>
-      <c r="E30">
-        <v>NaN</v>
+        <v>44.439</v>
+      </c>
+      <c r="E30" t="str">
+        <v>no unit</v>
       </c>
       <c r="F30">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1014,13 +1104,16 @@
         <v>33a3f756-639b-4c77-a824-5af83861046b-000e18f6</v>
       </c>
       <c r="D31">
-        <v>4.125</v>
-      </c>
-      <c r="E31">
-        <v>NaN</v>
+        <v>4.537</v>
+      </c>
+      <c r="E31" t="str">
+        <v>no unit</v>
       </c>
       <c r="F31">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1034,13 +1127,16 @@
         <v>bd94f0b1-f2af-4815-bde5-04c3ce22a275-000e3b99</v>
       </c>
       <c r="D32">
-        <v>5.381</v>
-      </c>
-      <c r="E32">
-        <v>NaN</v>
+        <v>4.843</v>
+      </c>
+      <c r="E32" t="str">
+        <v>no unit</v>
       </c>
       <c r="F32">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1150,16 @@
         <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182ad4</v>
       </c>
       <c r="D33">
-        <v>15.056999999999999</v>
-      </c>
-      <c r="E33">
-        <v>NaN</v>
+        <v>9.56</v>
+      </c>
+      <c r="E33" t="str">
+        <v>no unit</v>
       </c>
       <c r="F33">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1173,16 @@
         <v>4d3f9e48-4dbc-4dc0-8d78-54413d95e883-00152892</v>
       </c>
       <c r="D34">
-        <v>17.717</v>
-      </c>
-      <c r="E34">
-        <v>NaN</v>
+        <v>20.342</v>
+      </c>
+      <c r="E34" t="str">
+        <v>no unit</v>
       </c>
       <c r="F34">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1094,13 +1196,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e574f</v>
       </c>
       <c r="D35">
-        <v>0.952</v>
-      </c>
-      <c r="E35">
-        <v>NaN</v>
+        <v>0.569</v>
+      </c>
+      <c r="E35" t="str">
+        <v>no unit</v>
       </c>
       <c r="F35">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1114,13 +1219,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e581f</v>
       </c>
       <c r="D36">
-        <v>1.298</v>
-      </c>
-      <c r="E36">
-        <v>NaN</v>
+        <v>1.459</v>
+      </c>
+      <c r="E36" t="str">
+        <v>no unit</v>
       </c>
       <c r="F36">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1134,13 +1242,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5947</v>
       </c>
       <c r="D37">
-        <v>1.872</v>
-      </c>
-      <c r="E37">
-        <v>NaN</v>
+        <v>1.592</v>
+      </c>
+      <c r="E37" t="str">
+        <v>no unit</v>
       </c>
       <c r="F37">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1154,13 +1265,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5b35</v>
       </c>
       <c r="D38">
-        <v>4.613</v>
-      </c>
-      <c r="E38">
-        <v>NaN</v>
+        <v>3.921</v>
+      </c>
+      <c r="E38" t="str">
+        <v>no unit</v>
       </c>
       <c r="F38">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1174,13 +1288,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5c73</v>
       </c>
       <c r="D39">
-        <v>5.944</v>
-      </c>
-      <c r="E39">
-        <v>NaN</v>
+        <v>6.437</v>
+      </c>
+      <c r="E39" t="str">
+        <v>no unit</v>
       </c>
       <c r="F39">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1194,13 +1311,16 @@
         <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5d4c</v>
       </c>
       <c r="D40">
-        <v>4.275</v>
-      </c>
-      <c r="E40">
-        <v>NaN</v>
+        <v>3.634</v>
+      </c>
+      <c r="E40" t="str">
+        <v>no unit</v>
       </c>
       <c r="F40">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1214,13 +1334,16 @@
         <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f241</v>
       </c>
       <c r="D41">
-        <v>46.467999999999996</v>
-      </c>
-      <c r="E41">
-        <v>NaN</v>
+        <v>27.882</v>
+      </c>
+      <c r="E41" t="str">
+        <v>no unit</v>
       </c>
       <c r="F41">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1357,16 @@
         <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f348</v>
       </c>
       <c r="D42">
-        <v>18.75</v>
-      </c>
-      <c r="E42">
-        <v>NaN</v>
+        <v>2.5339999999999994</v>
+      </c>
+      <c r="E42" t="str">
+        <v>no unit</v>
       </c>
       <c r="F42">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1254,13 +1380,16 @@
         <v>36468402-17ce-4e88-b207-0d97339a29b1-000fb8ac</v>
       </c>
       <c r="D43">
-        <v>7.54</v>
-      </c>
-      <c r="E43">
-        <v>NaN</v>
+        <v>5.655</v>
+      </c>
+      <c r="E43" t="str">
+        <v>no unit</v>
       </c>
       <c r="F43">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1276,11 +1405,14 @@
       <c r="D44">
         <v>28.568</v>
       </c>
-      <c r="E44">
-        <v>NaN</v>
+      <c r="E44" t="str">
+        <v>no unit</v>
       </c>
       <c r="F44">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1294,13 +1426,16 @@
         <v>0924f267-f769-44f3-bf47-cad379070fbe-000fd5f0</v>
       </c>
       <c r="D45">
-        <v>9.387</v>
-      </c>
-      <c r="E45">
-        <v>NaN</v>
+        <v>6.077</v>
+      </c>
+      <c r="E45" t="str">
+        <v>no unit</v>
       </c>
       <c r="F45">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1314,13 +1449,16 @@
         <v>c6ab6079-6787-4ef3-a2b0-1bbbbcdacae1-000ff8ac</v>
       </c>
       <c r="D46">
-        <v>6.588</v>
-      </c>
-      <c r="E46">
-        <v>NaN</v>
+        <v>2.8</v>
+      </c>
+      <c r="E46" t="str">
+        <v>no unit</v>
       </c>
       <c r="F46">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1334,13 +1472,16 @@
         <v>c2497967-5e5c-4feb-b24d-95516e4409eb-00113353</v>
       </c>
       <c r="D47">
-        <v>30.102999999999998</v>
-      </c>
-      <c r="E47">
-        <v>NaN</v>
+        <v>45.154</v>
+      </c>
+      <c r="E47" t="str">
+        <v>no unit</v>
       </c>
       <c r="F47">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1354,13 +1495,16 @@
         <v>507f9514-38e3-442a-9eb6-7d200b28b870-001010ad</v>
       </c>
       <c r="D48">
-        <v>0.585</v>
-      </c>
-      <c r="E48">
-        <v>NaN</v>
+        <v>0.439</v>
+      </c>
+      <c r="E48" t="str">
+        <v>no unit</v>
       </c>
       <c r="F48">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1518,16 @@
         <v>507f9514-38e3-442a-9eb6-7d200b28b870-00101a4e</v>
       </c>
       <c r="D49">
-        <v>23</v>
-      </c>
-      <c r="E49">
-        <v>NaN</v>
+        <v>34.5</v>
+      </c>
+      <c r="E49" t="str">
+        <v>no unit</v>
       </c>
       <c r="F49">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1541,16 @@
         <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102021</v>
       </c>
       <c r="D50">
-        <v>24.448</v>
-      </c>
-      <c r="E50">
-        <v>NaN</v>
+        <v>36.671</v>
+      </c>
+      <c r="E50" t="str">
+        <v>no unit</v>
       </c>
       <c r="F50">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1414,13 +1564,16 @@
         <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001022f0</v>
       </c>
       <c r="D51">
-        <v>24.448</v>
-      </c>
-      <c r="E51">
-        <v>NaN</v>
+        <v>36.671</v>
+      </c>
+      <c r="E51" t="str">
+        <v>no unit</v>
       </c>
       <c r="F51">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1434,13 +1587,16 @@
         <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001023d3</v>
       </c>
       <c r="D52">
-        <v>24.438</v>
-      </c>
-      <c r="E52">
-        <v>NaN</v>
+        <v>36.656</v>
+      </c>
+      <c r="E52" t="str">
+        <v>no unit</v>
       </c>
       <c r="F52">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1454,13 +1610,16 @@
         <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102620</v>
       </c>
       <c r="D53">
-        <v>2.513</v>
-      </c>
-      <c r="E53">
-        <v>NaN</v>
+        <v>1.633</v>
+      </c>
+      <c r="E53" t="str">
+        <v>no unit</v>
       </c>
       <c r="F53">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1474,13 +1633,16 @@
         <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102baa</v>
       </c>
       <c r="D54">
-        <v>3.694</v>
-      </c>
-      <c r="E54">
-        <v>NaN</v>
+        <v>2.216</v>
+      </c>
+      <c r="E54" t="str">
+        <v>no unit</v>
       </c>
       <c r="F54">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1494,13 +1656,16 @@
         <v>d6443891-42aa-47f8-a090-0a5cd65e2b8c-00103187</v>
       </c>
       <c r="D55">
-        <v>4.785</v>
-      </c>
-      <c r="E55">
-        <v>NaN</v>
+        <v>4.307</v>
+      </c>
+      <c r="E55" t="str">
+        <v>no unit</v>
       </c>
       <c r="F55">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1514,13 +1679,16 @@
         <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea27</v>
       </c>
       <c r="D56">
-        <v>18.16</v>
-      </c>
-      <c r="E56">
-        <v>NaN</v>
+        <v>3.269</v>
+      </c>
+      <c r="E56" t="str">
+        <v>no unit</v>
       </c>
       <c r="F56">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1534,13 +1702,16 @@
         <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea25</v>
       </c>
       <c r="D57">
-        <v>6.464</v>
-      </c>
-      <c r="E57">
-        <v>NaN</v>
+        <v>2.489</v>
+      </c>
+      <c r="E57" t="str">
+        <v>no unit</v>
       </c>
       <c r="F57">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1554,13 +1725,16 @@
         <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea29</v>
       </c>
       <c r="D58">
-        <v>4.56</v>
-      </c>
-      <c r="E58">
-        <v>NaN</v>
+        <v>1.094</v>
+      </c>
+      <c r="E58" t="str">
+        <v>no unit</v>
       </c>
       <c r="F58">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1574,13 +1748,16 @@
         <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-00116943</v>
       </c>
       <c r="D59">
-        <v>54.775</v>
-      </c>
-      <c r="E59">
-        <v>NaN</v>
+        <v>15.924</v>
+      </c>
+      <c r="E59" t="str">
+        <v>no unit</v>
       </c>
       <c r="F59">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1594,13 +1771,16 @@
         <v>2aefd102-5237-4219-abd0-a35f53615e90-00117901</v>
       </c>
       <c r="D60">
-        <v>57.48400000000001</v>
-      </c>
-      <c r="E60">
-        <v>NaN</v>
+        <v>13.688</v>
+      </c>
+      <c r="E60" t="str">
+        <v>no unit</v>
       </c>
       <c r="F60">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1614,13 +1794,16 @@
         <v>2aefd102-5237-4219-abd0-a35f53615e90-00117905</v>
       </c>
       <c r="D61">
-        <v>19.503</v>
-      </c>
-      <c r="E61">
-        <v>NaN</v>
+        <v>11.455000000000002</v>
+      </c>
+      <c r="E61" t="str">
+        <v>no unit</v>
       </c>
       <c r="F61">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1634,13 +1817,16 @@
         <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-001169de</v>
       </c>
       <c r="D62">
-        <v>1.937</v>
-      </c>
-      <c r="E62">
-        <v>NaN</v>
+        <v>0.484</v>
+      </c>
+      <c r="E62" t="str">
+        <v>no unit</v>
       </c>
       <c r="F62">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1654,13 +1840,16 @@
         <v>5392bb32-8aab-43c3-97f0-b6109bfbb257-0018cb48</v>
       </c>
       <c r="D63">
-        <v>10.725</v>
-      </c>
-      <c r="E63">
-        <v>NaN</v>
+        <v>11.797</v>
+      </c>
+      <c r="E63" t="str">
+        <v>no unit</v>
       </c>
       <c r="F63">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1674,13 +1863,16 @@
         <v>d150203d-e4ab-40ad-964f-e4189d92bafa-0011af1c</v>
       </c>
       <c r="D64">
-        <v>10.939</v>
-      </c>
-      <c r="E64">
-        <v>NaN</v>
+        <v>13.127</v>
+      </c>
+      <c r="E64" t="str">
+        <v>no unit</v>
       </c>
       <c r="F64">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1694,13 +1886,16 @@
         <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-00123165</v>
       </c>
       <c r="D65">
-        <v>2.75</v>
-      </c>
-      <c r="E65">
-        <v>NaN</v>
+        <v>6.05</v>
+      </c>
+      <c r="E65" t="str">
+        <v>no unit</v>
       </c>
       <c r="F65">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1714,13 +1909,16 @@
         <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012313c</v>
       </c>
       <c r="D66">
-        <v>2.625</v>
-      </c>
-      <c r="E66">
-        <v>NaN</v>
+        <v>5.5120000000000005</v>
+      </c>
+      <c r="E66" t="str">
+        <v>no unit</v>
       </c>
       <c r="F66">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1734,13 +1932,16 @@
         <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-001231b9</v>
       </c>
       <c r="D67">
-        <v>1.5</v>
-      </c>
-      <c r="E67">
-        <v>NaN</v>
+        <v>3</v>
+      </c>
+      <c r="E67" t="str">
+        <v>no unit</v>
       </c>
       <c r="F67">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1754,13 +1955,16 @@
         <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012329c</v>
       </c>
       <c r="D68">
-        <v>3.575</v>
-      </c>
-      <c r="E68">
-        <v>NaN</v>
+        <v>2.86</v>
+      </c>
+      <c r="E68" t="str">
+        <v>no unit</v>
       </c>
       <c r="F68">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1774,13 +1978,16 @@
         <v>b51d19fa-a904-4d64-92d8-330c3e2e0eae-0014f699</v>
       </c>
       <c r="D69">
-        <v>15.008</v>
-      </c>
-      <c r="E69">
-        <v>NaN</v>
+        <v>12.498000000000001</v>
+      </c>
+      <c r="E69" t="str">
+        <v>no unit</v>
       </c>
       <c r="F69">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1796,11 +2003,14 @@
       <c r="D70">
         <v>4.05</v>
       </c>
-      <c r="E70">
-        <v>NaN</v>
+      <c r="E70" t="str">
+        <v>no unit</v>
       </c>
       <c r="F70">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1814,13 +2024,16 @@
         <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001278df</v>
       </c>
       <c r="D71">
-        <v>2.7</v>
-      </c>
-      <c r="E71">
-        <v>NaN</v>
+        <v>4.86</v>
+      </c>
+      <c r="E71" t="str">
+        <v>no unit</v>
       </c>
       <c r="F71">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1834,13 +2047,16 @@
         <v>05726df2-4f2a-4328-bc50-51811656c723-00127e1a</v>
       </c>
       <c r="D72">
-        <v>1.6</v>
-      </c>
-      <c r="E72">
-        <v>NaN</v>
+        <v>2.56</v>
+      </c>
+      <c r="E72" t="str">
+        <v>no unit</v>
       </c>
       <c r="F72">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1854,13 +2070,16 @@
         <v>b73e362f-1901-4835-abf6-ec907a809918-0012a24a</v>
       </c>
       <c r="D73">
-        <v>1.533</v>
-      </c>
-      <c r="E73">
-        <v>NaN</v>
+        <v>3.219</v>
+      </c>
+      <c r="E73" t="str">
+        <v>no unit</v>
       </c>
       <c r="F73">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1874,13 +2093,16 @@
         <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012c2f0</v>
       </c>
       <c r="D74">
-        <v>17.92</v>
-      </c>
-      <c r="E74">
-        <v>NaN</v>
+        <v>28.672</v>
+      </c>
+      <c r="E74" t="str">
+        <v>no unit</v>
       </c>
       <c r="F74">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1894,13 +2116,16 @@
         <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012ca89</v>
       </c>
       <c r="D75">
-        <v>2.712</v>
-      </c>
-      <c r="E75">
-        <v>NaN</v>
+        <v>1.763</v>
+      </c>
+      <c r="E75" t="str">
+        <v>no unit</v>
       </c>
       <c r="F75">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1914,13 +2139,16 @@
         <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013c509</v>
       </c>
       <c r="D76">
-        <v>0.765</v>
-      </c>
-      <c r="E76">
-        <v>NaN</v>
+        <v>0.383</v>
+      </c>
+      <c r="E76" t="str">
+        <v>no unit</v>
       </c>
       <c r="F76">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1934,13 +2162,16 @@
         <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013d1b5</v>
       </c>
       <c r="D77">
-        <v>9.854</v>
-      </c>
-      <c r="E77">
-        <v>NaN</v>
+        <v>3.9410000000000003</v>
+      </c>
+      <c r="E77" t="str">
+        <v>no unit</v>
       </c>
       <c r="F77">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1954,13 +2185,16 @@
         <v>edfa0503-934e-4b88-9307-93b917b842ac-0013e6d2</v>
       </c>
       <c r="D78">
-        <v>0.13</v>
-      </c>
-      <c r="E78">
-        <v>NaN</v>
+        <v>0.062</v>
+      </c>
+      <c r="E78" t="str">
+        <v>no unit</v>
       </c>
       <c r="F78">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1974,13 +2208,16 @@
         <v>1faf22a1-8d9f-42fd-8039-23175f892b9f-0014cd9e</v>
       </c>
       <c r="D79">
-        <v>2.752</v>
-      </c>
-      <c r="E79">
-        <v>NaN</v>
+        <v>2.477</v>
+      </c>
+      <c r="E79" t="str">
+        <v>no unit</v>
       </c>
       <c r="F79">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1994,13 +2231,16 @@
         <v>33fd104a-8240-4544-a9c3-0760488e28c6-0014e3ea</v>
       </c>
       <c r="D80">
-        <v>16.46</v>
-      </c>
-      <c r="E80">
-        <v>NaN</v>
+        <v>10.204999999999998</v>
+      </c>
+      <c r="E80" t="str">
+        <v>no unit</v>
       </c>
       <c r="F80">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2014,13 +2254,16 @@
         <v>c7fa93e0-ed40-44ab-ab8b-23b9361088bd-0014d618</v>
       </c>
       <c r="D81">
-        <v>2.6189999999999998</v>
-      </c>
-      <c r="E81">
-        <v>NaN</v>
+        <v>1.662</v>
+      </c>
+      <c r="E81" t="str">
+        <v>no unit</v>
       </c>
       <c r="F81">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2034,13 +2277,16 @@
         <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-00150072</v>
       </c>
       <c r="D82">
-        <v>18.684</v>
-      </c>
-      <c r="E82">
-        <v>NaN</v>
+        <v>15.613</v>
+      </c>
+      <c r="E82" t="str">
+        <v>no unit</v>
       </c>
       <c r="F82">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2054,13 +2300,16 @@
         <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-0014ffd4</v>
       </c>
       <c r="D83">
-        <v>17.795</v>
-      </c>
-      <c r="E83">
-        <v>NaN</v>
+        <v>14.811</v>
+      </c>
+      <c r="E83" t="str">
+        <v>no unit</v>
       </c>
       <c r="F83">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2074,13 +2323,16 @@
         <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-0015445f</v>
       </c>
       <c r="D84">
-        <v>17.829</v>
-      </c>
-      <c r="E84">
-        <v>NaN</v>
+        <v>4.279</v>
+      </c>
+      <c r="E84" t="str">
+        <v>no unit</v>
       </c>
       <c r="F84">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2094,13 +2346,16 @@
         <v>8242dcf1-6a1c-45b6-8e2b-a66eb0d64926-00168d80</v>
       </c>
       <c r="D85">
-        <v>3.6</v>
-      </c>
-      <c r="E85">
-        <v>NaN</v>
+        <v>1.512</v>
+      </c>
+      <c r="E85" t="str">
+        <v>no unit</v>
       </c>
       <c r="F85">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2114,13 +2369,16 @@
         <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182cc0</v>
       </c>
       <c r="D86">
-        <v>4.925000000000001</v>
-      </c>
-      <c r="E86">
-        <v>NaN</v>
+        <v>3.2030000000000003</v>
+      </c>
+      <c r="E86" t="str">
+        <v>no unit</v>
       </c>
       <c r="F86">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2134,13 +2392,16 @@
         <v>4f6dab03-67e9-4402-a933-0f0ff01428c6-0018229a</v>
       </c>
       <c r="D87">
-        <v>51.361</v>
-      </c>
-      <c r="E87">
-        <v>NaN</v>
+        <v>9.244</v>
+      </c>
+      <c r="E87" t="str">
+        <v>no unit</v>
       </c>
       <c r="F87">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2154,13 +2415,16 @@
         <v>07bacce6-92c6-4bfb-8a64-1913d5b89391-002db3d7</v>
       </c>
       <c r="D88">
-        <v>1.7</v>
-      </c>
-      <c r="E88">
-        <v>NaN</v>
+        <v>2.04</v>
+      </c>
+      <c r="E88" t="str">
+        <v>no unit</v>
       </c>
       <c r="F88">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2174,13 +2438,16 @@
         <v>2c208ae6-a9a6-4308-88be-af815570abc5-00183108</v>
       </c>
       <c r="D89">
-        <v>0.995</v>
-      </c>
-      <c r="E89">
-        <v>NaN</v>
+        <v>0.647</v>
+      </c>
+      <c r="E89" t="str">
+        <v>no unit</v>
       </c>
       <c r="F89">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2194,13 +2461,16 @@
         <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0886</v>
       </c>
       <c r="D90">
-        <v>2.393</v>
-      </c>
-      <c r="E90">
-        <v>NaN</v>
+        <v>2.632</v>
+      </c>
+      <c r="E90" t="str">
+        <v>no unit</v>
       </c>
       <c r="F90">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2214,13 +2484,16 @@
         <v>2085092f-6c33-4e69-bafa-776c9a64fd4a-00184876</v>
       </c>
       <c r="D91">
-        <v>0.7050000000000001</v>
-      </c>
-      <c r="E91">
-        <v>NaN</v>
+        <v>0.353</v>
+      </c>
+      <c r="E91" t="str">
+        <v>no unit</v>
       </c>
       <c r="F91">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2234,13 +2507,16 @@
         <v>b8aa9d65-851e-4ede-bdd8-fec59d7ce6d2-00185c56</v>
       </c>
       <c r="D92">
-        <v>0.637</v>
-      </c>
-      <c r="E92">
-        <v>NaN</v>
+        <v>0.414</v>
+      </c>
+      <c r="E92" t="str">
+        <v>no unit</v>
       </c>
       <c r="F92">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2254,13 +2530,16 @@
         <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bf6a1</v>
       </c>
       <c r="D93">
-        <v>8.49</v>
-      </c>
-      <c r="E93">
-        <v>NaN</v>
+        <v>6.367</v>
+      </c>
+      <c r="E93" t="str">
+        <v>no unit</v>
       </c>
       <c r="F93">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2274,13 +2553,16 @@
         <v>be4d29db-8331-4d5a-bdfa-b693835d3c09-00192ead</v>
       </c>
       <c r="D94">
-        <v>1.072</v>
-      </c>
-      <c r="E94">
-        <v>NaN</v>
+        <v>1.608</v>
+      </c>
+      <c r="E94" t="str">
+        <v>no unit</v>
       </c>
       <c r="F94">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2294,13 +2576,16 @@
         <v>e8032f2e-d1ca-46d2-bb63-8b8f019712b1-001b18c3</v>
       </c>
       <c r="D95">
-        <v>1.152</v>
-      </c>
-      <c r="E95">
-        <v>NaN</v>
+        <v>0.489</v>
+      </c>
+      <c r="E95" t="str">
+        <v>no unit</v>
       </c>
       <c r="F95">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2314,13 +2599,16 @@
         <v>8f0153ce-c875-4515-b993-67d57cf7c399-001b3ab2</v>
       </c>
       <c r="D96">
-        <v>21.276000000000003</v>
-      </c>
-      <c r="E96">
-        <v>NaN</v>
+        <v>63.828</v>
+      </c>
+      <c r="E96" t="str">
+        <v>no unit</v>
       </c>
       <c r="F96">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2334,13 +2622,16 @@
         <v>072ac9bd-ab8f-4d57-b8f4-71a5ab47a5c0-001d3ba2</v>
       </c>
       <c r="D97">
-        <v>17.2</v>
-      </c>
-      <c r="E97">
-        <v>NaN</v>
+        <v>10.32</v>
+      </c>
+      <c r="E97" t="str">
+        <v>no unit</v>
       </c>
       <c r="F97">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2354,13 +2645,16 @@
         <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bfc86</v>
       </c>
       <c r="D98">
-        <v>0.81</v>
-      </c>
-      <c r="E98">
-        <v>NaN</v>
+        <v>0.729</v>
+      </c>
+      <c r="E98" t="str">
+        <v>no unit</v>
       </c>
       <c r="F98">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2374,13 +2668,16 @@
         <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bffaa</v>
       </c>
       <c r="D99">
-        <v>0.81</v>
-      </c>
-      <c r="E99">
-        <v>NaN</v>
+        <v>0.972</v>
+      </c>
+      <c r="E99" t="str">
+        <v>no unit</v>
       </c>
       <c r="F99">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2394,13 +2691,16 @@
         <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0366</v>
       </c>
       <c r="D100">
-        <v>1.053</v>
-      </c>
-      <c r="E100">
-        <v>NaN</v>
+        <v>0.684</v>
+      </c>
+      <c r="E100" t="str">
+        <v>no unit</v>
       </c>
       <c r="F100">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2414,13 +2714,16 @@
         <v>21905e4b-ef08-4641-8e64-f24d74341b88-001d41a3</v>
       </c>
       <c r="D101">
-        <v>23.250999999999998</v>
-      </c>
-      <c r="E101">
-        <v>NaN</v>
+        <v>13.951</v>
+      </c>
+      <c r="E101" t="str">
+        <v>no unit</v>
       </c>
       <c r="F101">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2436,11 +2739,14 @@
       <c r="D102">
         <v>2.767</v>
       </c>
-      <c r="E102">
-        <v>NaN</v>
+      <c r="E102" t="str">
+        <v>no unit</v>
       </c>
       <c r="F102">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2454,13 +2760,16 @@
         <v>0c80cdbb-72a6-403a-aab0-91697da3fc7f-001ef6b7</v>
       </c>
       <c r="D103">
-        <v>1.448</v>
-      </c>
-      <c r="E103">
-        <v>NaN</v>
+        <v>0.352</v>
+      </c>
+      <c r="E103" t="str">
+        <v>no unit</v>
       </c>
       <c r="F103">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2474,13 +2783,16 @@
         <v>47474339-5d9c-4284-98cf-b4e17f34b79c-0028facb</v>
       </c>
       <c r="D104">
-        <v>1.352</v>
-      </c>
-      <c r="E104">
-        <v>NaN</v>
+        <v>0.338</v>
+      </c>
+      <c r="E104" t="str">
+        <v>no unit</v>
       </c>
       <c r="F104">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2494,13 +2806,16 @@
         <v>b2743f51-29b8-44db-bdc1-046547ceb7a0-001fc849</v>
       </c>
       <c r="D105">
-        <v>7.231</v>
-      </c>
-      <c r="E105">
-        <v>NaN</v>
+        <v>2.236</v>
+      </c>
+      <c r="E105" t="str">
+        <v>no unit</v>
       </c>
       <c r="F105">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2514,13 +2829,16 @@
         <v>1b404457-e21c-4c73-ba95-38021fc63691-00228242</v>
       </c>
       <c r="D106">
-        <v>0.234</v>
-      </c>
-      <c r="E106">
-        <v>NaN</v>
+        <v>0.042</v>
+      </c>
+      <c r="E106" t="str">
+        <v>no unit</v>
       </c>
       <c r="F106">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2534,13 +2852,16 @@
         <v>1b404457-e21c-4c73-ba95-38021fc63691-00228244</v>
       </c>
       <c r="D107">
-        <v>0.282</v>
-      </c>
-      <c r="E107">
-        <v>NaN</v>
+        <v>0.054</v>
+      </c>
+      <c r="E107" t="str">
+        <v>no unit</v>
       </c>
       <c r="F107">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2554,13 +2875,16 @@
         <v>efb93b84-2f8f-45e3-bb27-c36b359330a1-00249052</v>
       </c>
       <c r="D108">
-        <v>0.06</v>
-      </c>
-      <c r="E108">
-        <v>NaN</v>
+        <v>0.015</v>
+      </c>
+      <c r="E108" t="str">
+        <v>no unit</v>
       </c>
       <c r="F108">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2574,13 +2898,16 @@
         <v>b904f41b-99ce-4c58-bfb0-7099f0aa27d9-0026c1ab</v>
       </c>
       <c r="D109">
-        <v>22.192</v>
-      </c>
-      <c r="E109">
-        <v>NaN</v>
+        <v>7.324</v>
+      </c>
+      <c r="E109" t="str">
+        <v>no unit</v>
       </c>
       <c r="F109">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2594,25 +2921,28 @@
         <v>e3470352-9677-42bf-b501-4dd1c33bc67c-0028984b</v>
       </c>
       <c r="D110">
-        <v>1.454</v>
-      </c>
-      <c r="E110">
-        <v>NaN</v>
+        <v>0.095</v>
+      </c>
+      <c r="E110" t="str">
+        <v>no unit</v>
       </c>
       <c r="F110">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G110"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2628,12 +2958,15 @@
         <v>id</v>
       </c>
       <c r="D1" t="str">
-        <v>Total Area</v>
+        <v>Total</v>
       </c>
       <c r="E1" t="str">
+        <v>Unit</v>
+      </c>
+      <c r="F1" t="str">
         <v>Total Price</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Total Hours</v>
       </c>
     </row>
@@ -2648,13 +2981,16 @@
         <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf447</v>
       </c>
       <c r="D2">
-        <v>5074.367</v>
-      </c>
-      <c r="E2">
-        <v>NaN</v>
+        <v>1623.8000000000002</v>
+      </c>
+      <c r="E2" t="str">
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2668,13 +3004,16 @@
         <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e01e</v>
       </c>
       <c r="D3">
-        <v>49.142</v>
-      </c>
-      <c r="E3">
-        <v>NaN</v>
+        <v>29.485</v>
+      </c>
+      <c r="E3" t="str">
+        <v>no unit</v>
       </c>
       <c r="F3">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2688,13 +3027,16 @@
         <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e0f0</v>
       </c>
       <c r="D4">
-        <v>51.992</v>
-      </c>
-      <c r="E4">
-        <v>NaN</v>
+        <v>44.116</v>
+      </c>
+      <c r="E4" t="str">
+        <v>no unit</v>
       </c>
       <c r="F4">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2708,13 +3050,16 @@
         <v>02347880-3549-486a-b0be-10b98f5231c1-000a12a0</v>
       </c>
       <c r="D5">
-        <v>128.53699999999998</v>
-      </c>
-      <c r="E5">
-        <v>NaN</v>
+        <v>51.414</v>
+      </c>
+      <c r="E5" t="str">
+        <v>no unit</v>
       </c>
       <c r="F5">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2728,13 +3073,16 @@
         <v>1f365000-c712-4bcc-acac-a98ec617ddea-0006f81f</v>
       </c>
       <c r="D6">
-        <v>115.05799999999999</v>
-      </c>
-      <c r="E6">
-        <v>NaN</v>
+        <v>46.024</v>
+      </c>
+      <c r="E6" t="str">
+        <v>no unit</v>
       </c>
       <c r="F6">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2748,13 +3096,16 @@
         <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c182</v>
       </c>
       <c r="D7">
-        <v>1210.182</v>
-      </c>
-      <c r="E7">
-        <v>NaN</v>
+        <v>484.0719999999999</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
       </c>
       <c r="F7">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2768,13 +3119,16 @@
         <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b16c</v>
       </c>
       <c r="D8">
-        <v>20.52</v>
-      </c>
-      <c r="E8">
-        <v>NaN</v>
+        <v>6.5649999999999995</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
       </c>
       <c r="F8">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2788,13 +3142,16 @@
         <v>ff6de429-be59-4eb0-bbcf-380392c3bdbe-00219f06</v>
       </c>
       <c r="D9">
-        <v>982.682</v>
-      </c>
-      <c r="E9">
-        <v>NaN</v>
+        <v>265.323</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
       </c>
       <c r="F9">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2808,13 +3165,16 @@
         <v>cc428e52-d21a-45ba-b69e-05dc6e76d0c4-00097080</v>
       </c>
       <c r="D10">
-        <v>40.769999999999996</v>
-      </c>
-      <c r="E10">
-        <v>NaN</v>
+        <v>8.969000000000001</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
       </c>
       <c r="F10">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2828,13 +3188,16 @@
         <v>15139f1c-cc65-46f5-90d1-11cacb340d0e-000c5650</v>
       </c>
       <c r="D11">
-        <v>10.777</v>
-      </c>
-      <c r="E11">
-        <v>NaN</v>
+        <v>2.91</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
       </c>
       <c r="F11">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2848,13 +3211,16 @@
         <v>1b91721c-05d8-4a2c-bdff-65801b99a722-000cad34</v>
       </c>
       <c r="D12">
-        <v>37.492</v>
-      </c>
-      <c r="E12">
-        <v>NaN</v>
+        <v>4.499</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
       </c>
       <c r="F12">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2868,13 +3234,16 @@
         <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf5cf</v>
       </c>
       <c r="D13">
-        <v>4.29</v>
-      </c>
-      <c r="E13">
-        <v>NaN</v>
+        <v>0.944</v>
+      </c>
+      <c r="E13" t="str">
+        <v>no unit</v>
       </c>
       <c r="F13">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2888,13 +3257,16 @@
         <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c3c3</v>
       </c>
       <c r="D14">
-        <v>757.145</v>
-      </c>
-      <c r="E14">
-        <v>NaN</v>
+        <v>227.145</v>
+      </c>
+      <c r="E14" t="str">
+        <v>no unit</v>
       </c>
       <c r="F14">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2908,13 +3280,16 @@
         <v>13df06ee-a86f-404a-832b-757fa8178e9d-0015c9f1</v>
       </c>
       <c r="D15">
-        <v>253.765</v>
-      </c>
-      <c r="E15">
-        <v>NaN</v>
+        <v>76.13</v>
+      </c>
+      <c r="E15" t="str">
+        <v>no unit</v>
       </c>
       <c r="F15">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2928,13 +3303,16 @@
         <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc12a</v>
       </c>
       <c r="D16">
-        <v>111.36400000000002</v>
-      </c>
-      <c r="E16">
-        <v>NaN</v>
+        <v>27.84</v>
+      </c>
+      <c r="E16" t="str">
+        <v>no unit</v>
       </c>
       <c r="F16">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2948,13 +3326,16 @@
         <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc133</v>
       </c>
       <c r="D17">
-        <v>111.36400000000002</v>
-      </c>
-      <c r="E17">
-        <v>NaN</v>
+        <v>22.272</v>
+      </c>
+      <c r="E17" t="str">
+        <v>no unit</v>
       </c>
       <c r="F17">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2968,13 +3349,16 @@
         <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b557a</v>
       </c>
       <c r="D18">
-        <v>30.597</v>
-      </c>
-      <c r="E18">
-        <v>NaN</v>
+        <v>7.648999999999999</v>
+      </c>
+      <c r="E18" t="str">
+        <v>no unit</v>
       </c>
       <c r="F18">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2988,18 +3372,21 @@
         <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b5607</v>
       </c>
       <c r="D19">
-        <v>30.351999999999997</v>
-      </c>
-      <c r="E19">
-        <v>NaN</v>
+        <v>6.07</v>
+      </c>
+      <c r="E19" t="str">
+        <v>no unit</v>
       </c>
       <c r="F19">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -5,8 +5,6 @@
   <sheets>
     <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
     <sheet name="Floor " sheetId="2" r:id="rId2"/>
-    <sheet name="Udvendig ét fags vindue " sheetId="3" r:id="rId3"/>
-    <sheet name="Basic Roof " sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -400,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,106 +428,2521 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Sandwichelement - 480mm</v>
+        <v>Beton bagvægs sternelement  - 240mm</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e681</v>
+        <v>06138e42-14cf-4889-81ff-5cb577a97058-00161cb9</v>
       </c>
       <c r="D2">
-        <v>72.37</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>m2</v>
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>303954</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>144.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sandwichelement - 450mm</v>
+        <v>Beton bagvægs element - 240mm</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e67f</v>
+        <v>20c97ef1-fb64-41d4-891e-372da3afacf1-00068009</v>
       </c>
       <c r="D3">
-        <v>19.614</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>m2</v>
+        <v>no unit</v>
       </c>
       <c r="F3">
-        <v>78456</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>39.228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Beton vægelement - 150mm</v>
+        <v>Beton vægelement indervæg - 240mm</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f553</v>
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-00154339</v>
       </c>
       <c r="D4">
-        <v>20.384999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>m2</v>
+        <v>no unit</v>
       </c>
       <c r="F4">
-        <v>26500.5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>34.6545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Fundament - 900mm</v>
+        <v>Konsolh 250 ved modul 06-C- på 250mm væg</v>
       </c>
       <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <v>66234324-32a0-488c-a570-0d46e40f0cf2-002af2a3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Beton vægelement indervæg - 180mm</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" t="str">
+        <v>f6af4370-7487-4380-871e-b8779596a02c-002d10c5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Beton vægelement kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <v>c6896cd4-c49d-464a-8d39-1ce0b0c544f5-002eda95</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Beton vægelement kælder ydervæg - 240mm</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f62f</v>
-      </c>
-      <c r="D5">
-        <v>31.71</v>
-      </c>
-      <c r="E5" t="str">
-        <v>lbm</v>
-      </c>
-      <c r="F5">
-        <v>136353</v>
-      </c>
-      <c r="G5">
-        <v>95.13</v>
+      <c r="C8" t="str">
+        <v>933d8c69-e661-4a74-af39-8cd2a78d7843-000b3316</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Beton vægelement kælder indervæg - 240mm</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4bdc22ba-8121-4aef-8716-3720bedf332a-0006a562</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>In-Situvæg - kælder ydervæg - 385mm</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a6fd</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Beton vægelement kælder ydervæg med konsol - 350mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3947175f-7d60-4f8d-8c6d-0aba73a96cd8-0006a79d</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>In-Situvæg - kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>a1df5231-b149-43dd-80db-48ce65cbaa80-00088d41</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>In-Situvæg - kælder indervæg - 200mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006a93e</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beton vægelement kælder indervæg med konsol - 180mm</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ae97</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Beton vægelement klæder indervæg med konsol - 250mm</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006ada4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Beton vægelement kælder indervæg - 250mm</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b6f4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Beton vægelement kælder indervæg - 180mm</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15ec039d-4db4-4827-bb77-4dd9e8a53f28-000b7471</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Beton vægelement kælder indervæg - 350mm</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>db1a974f-73ca-4b64-90a7-45673492e50c-000abbba</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>In-Situvæg - kælder indervæg - 400mm</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b267</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>In-Situvæg - kælder indervæg - 600mm</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b2b4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>In-Situvæg - kælder indervæg - 850mm</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2b01d0ac-e28e-4eab-a468-0b846abf7208-0006b388</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 250mm</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b484</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Beton bagvægs sternelement - 180mm</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b51b</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>In-Situvæg -støttemur 3000mm</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008cfe3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>In-Situvæg -støttemur 400mm</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>e648d95f-77b7-47de-96f0-e116d68f7ee6-0008d040</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Beton vægelement Tunnel Nord ydervæg - 250mm</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" t="str">
+        <v>f05cb4ad-bdc7-49e9-b554-1f03ef927db3-000da2c6</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 180mm</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>e8bd54ed-a7de-434a-b593-eab2ec63e1c2-000c94bd</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Beton Konsolelement på 250mm kældervæg - 200mm</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>eecbd977-42fd-4ea6-b35b-7f7de2e1df21-0019f090</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Beton Konsolelement på 180mm kældervæg - 200mm</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>a08858d0-b384-4a54-af49-44123b7b2365-000a633a</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>In-Situvæg - kælder ydervæg - 500mm</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <v>362aa409-cf52-44d3-95a5-710f5bf483b2-0010e483</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Fundament - 1100mm (LF06)</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>33a3f756-639b-4c77-a824-5af83861046b-000e18f6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Fundament - 900mm (LF25)</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>bd94f0b1-f2af-4815-bde5-04c3ce22a275-000e3b99</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Fundament - 650mm (LF33)</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182ad4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Fundament - 1200mm (LF09)</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4d3f9e48-4dbc-4dc0-8d78-54413d95e883-00152892</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Fundament - 600mm (LF31)</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e574f</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fundament - 1200mm (LF42)</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e581f</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Fundament - 850mm (LF30)</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5947</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Fundament - 850mm (LF26)</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5b35</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Fundament - 1100mm (LF27)</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5c73</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Fundament - 850mm (LF28)</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>26bb1656-9430-4fd4-b320-9cccede9f454-000e5d4c</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Fundament - Tunnel Nord - 600mm (LF50)</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f241</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Fundament - Tunnel Nord - 135mm (LF50)</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="str">
+        <v>32d69c92-aff2-488e-9e49-e702afbcdfc9-0010f348</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fundament - 750mm (LF13)</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>36468402-17ce-4e88-b207-0d97339a29b1-000fb8ac</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fundament - 1000mm (LF11)</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>c177e4e4-0276-43da-ba01-23ece77a4953-00169c2d</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fundament - 650mm (LF29)</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>0924f267-f769-44f3-bf47-cad379070fbe-000fd5f0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fundament - Tunnel Nord - 425mm (LF51)</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>c6ab6079-6787-4ef3-a2b0-1bbbbcdacae1-000ff8ac</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Fundament - 1500mm (LF04)</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>c2497967-5e5c-4feb-b24d-95516e4409eb-00113353</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fundament - 750mm (LF14)</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-001010ad</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fundament - 1500mm (LF01)</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>507f9514-38e3-442a-9eb6-7d200b28b870-00101a4e</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Fundament - 1500mm (LF02)</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102021</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fundament - 1500mm (LF03)</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001022f0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Fundament - 1500mm (LF05)</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-001023d3</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Fundament - 650mm (LF23)</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102620</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Fundament - 600mm (LF41)</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>7d1d56de-56f7-42e6-90cc-34bb550f1e7a-00102baa</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Fundament - 900mm (LF40)</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>d6443891-42aa-47f8-a090-0a5cd65e2b8c-00103187</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 180mm</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea27</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>In-Situvæg - elevatorgrubbe - 385mm</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea25</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 240mm</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <v>a42623e3-12d4-4ba9-8a3b-0996e8467276-0010ea29</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 300mm</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-00116943</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117901</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fundament - Tunnel SYD - 600mm (LF60)</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2aefd102-5237-4219-abd0-a35f53615e90-00117905</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>insitu Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>bf3da9be-01f8-44b8-a12d-7a026e84230a-001169de</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Fundament - 1100mm (LF08)</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>5392bb32-8aab-43c3-97f0-b6109bfbb257-0018cb48</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Fundament - 1200mm (LF10)</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>d150203d-e4ab-40ad-964f-e4189d92bafa-0011af1c</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Fundament - 2200mm (PF01)</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-00123165</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Fundament - 2100mm (PF02)</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012313c</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Fundament - 2000mm (PF04)</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-001231b9</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Fundament - 800mm (LF17)</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>4cddcfb8-669c-444f-9c9e-b02d1ca74511-0012329c</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Fundament - 900mm (LF37)</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="str">
+        <v>b51d19fa-a904-4d64-92d8-330c3e2e0eae-0014f699</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Fundament - 1000mm (PF08)</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001277e8</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Fundament - 1800mm (PF06)</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>e7edafb1-d464-4e3b-ae70-043e036bbb1c-001278df</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Fundament - 1600mm (PF05)</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>05726df2-4f2a-4328-bc50-51811656c723-00127e1a</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Fundament - 2100mm (PF03)</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>b73e362f-1901-4835-abf6-ec907a809918-0012a24a</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Fundament - 1600mm (PF07)</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012c2f0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Fundament - 650mm (LF22)</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <v>d4bf945c-9d18-4182-9c47-bbf9a190d573-0012ca89</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Fundament - 500mm (LF16)</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013c509</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Fundament - 400mm (LF15)</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="str">
+        <v>38725a8f-6e57-42db-aad7-d8ed08d36c62-0013d1b5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Fundament - 480mm (PF03)</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>edfa0503-934e-4b88-9307-93b917b842ac-0013e6d2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Fundament - 900mm (FL38)</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1faf22a1-8d9f-42fd-8039-23175f892b9f-0014cd9e</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Fundament - 650mm (LF34)</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <v>33fd104a-8240-4544-a9c3-0760488e28c6-0014e3ea</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Fundament - 650mm (LF35)</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <v>c7fa93e0-ed40-44ab-ab8b-23b9361088bd-0014d618</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Fundament - 900mm (LF20)</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-00150072</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Fundament - 900mm (FL21)</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>f83e047d-bf1c-4e3d-a21f-0b68f3c92c15-0014ffd4</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>In-Situvæg - 240mm</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>56f3329c-e7c4-4ed6-9e76-fbb690f9f6c6-0015445f</v>
+      </c>
+      <c r="D84">
+        <v>17.829</v>
+      </c>
+      <c r="E84" t="str">
+        <v>m²</v>
+      </c>
+      <c r="F84">
+        <v>34766.55</v>
+      </c>
+      <c r="G84">
+        <v>115.88850000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Fundament - 420mm (LF19)</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <v>8242dcf1-6a1c-45b6-8e2b-a66eb0d64926-00168d80</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Grovbeton - 650mm (GF33)</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00182cc0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Beton sternelement - 180mm</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="str">
+        <v>4f6dab03-67e9-4402-a933-0f0ff01428c6-0018229a</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Grovbeton - 1200mm (GF09)</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="str">
+        <v>07bacce6-92c6-4bfb-8a64-1913d5b89391-002db3d7</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Grovbeton - 650mm (GF34)</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2c208ae6-a9a6-4308-88be-af815570abc5-00183108</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Grovbeton - 1100mm (GF08)</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0886</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Grovbeton - 500mm (GF16)</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2085092f-6c33-4e69-bafa-776c9a64fd4a-00184876</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Grovbeton - 650mm (GF35)</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <v>b8aa9d65-851e-4ede-bdd8-fec59d7ce6d2-00185c56</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Grovbeton - 750mm (GF13)</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bf6a1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Grovbeton - 1500mm (GF04)</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
+        <v>be4d29db-8331-4d5a-bdfa-b693835d3c09-00192ead</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Fundament - Tunnel syd - 425mm (LF61)</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
+        <v>e8032f2e-d1ca-46d2-bb63-8b8f019712b1-001b18c3</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Grovbeton støttemur - 3000mm</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="str">
+        <v>8f0153ce-c875-4515-b993-67d57cf7c399-001b3ab2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Grovbeton - 600mm (GF50)</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>072ac9bd-ab8f-4d57-b8f4-71a5ab47a5c0-001d3ba2</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Grovbeton - 900mm (GF40)</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bfc86</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Grovbeton - 1200mm (GF10)</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001bffaa</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Grovbeton - 650mm (GF22)</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="str">
+        <v>34ca3f6f-39f2-4e42-a51b-a786fae562f4-001c0366</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Grovbeton - 600mm (GF60)</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="str">
+        <v>21905e4b-ef08-4641-8e64-f24d74341b88-001d41a3</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Grovbeton -1000mm (GF11)</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="str">
+        <v>46ba8c82-64bf-4957-a37e-9406a9a975b0-001d3332</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>element Tunnel Nord udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>0c80cdbb-72a6-403a-aab0-91697da3fc7f-001ef6b7</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>element Tunnel SYD udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>47474339-5d9c-4284-98cf-b4e17f34b79c-0028facb</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>In-Situvæg - kælder indervæg - 350mm</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>b2743f51-29b8-44db-bdc1-046547ceb7a0-001fc849</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Konsolh 250 ved modul 8-C- på 180mm væg</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228242</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Konsolh 250 ved modul 8-B- på 180mm væg</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1b404457-e21c-4c73-ba95-38021fc63691-00228244</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Konsolh 250 ved modul 9-B- på 250mm væg</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <v>efb93b84-2f8f-45e3-bb27-c36b359330a1-00249052</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Beton vægelement - 330mm - eksisterende</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <v>b904f41b-99ce-4c58-bfb0-7099f0aa27d9-0026c1ab</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>In-Situvæg - kælder ydervæg - 65mm</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <v>e3470352-9677-42bf-b501-4dd1c33bc67c-0028984b</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G110"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,196 +2972,421 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Huldæk - 180mm</v>
+        <v>Huldæk - 320mm</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e695</v>
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf447</v>
       </c>
       <c r="D2">
-        <v>54.391</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>m2</v>
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>299150.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27.1955</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>In-Situ Dæk - 600mm</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e01e</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>In-Situ Dæk - 850mm</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5964edd7-a937-42d9-afe4-5cb0e4c0fb2b-0006e0f0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>In-Situ Dæk - 400mm</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>02347880-3549-486a-b0be-10b98f5231c1-000a12a0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Massivt forspændt dæk - 400mm</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1f365000-c712-4bcc-acac-a98ec617ddea-0006f81f</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Huldæk - 400mm</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c182</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>In-Situ Dæk - 320mm</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>e7f00ec7-cff0-4fa9-9ed5-2b3b6b93ed4f-0008b16c</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Huldæk - 270mm</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ff6de429-be59-4eb0-bbcf-380392c3bdbe-00219f06</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Huldæk - 220mm</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>cc428e52-d21a-45ba-b69e-05dc6e76d0c4-00097080</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Massivdæk - 270mm</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>15139f1c-cc65-46f5-90d1-11cacb340d0e-000c5650</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Svømmendedæk - 120mm</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1b91721c-05d8-4a2c-bdff-65801b99a722-000cad34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Massivdæk - 220mm</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0e425882-a35b-4fdc-bf4c-f7bf704b50ee-000cf5cf</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>300mm Hård Isolering</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <v>48bcebe6-42c3-4b69-b636-fdd10435dfbd-0016c3c3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>300mm Gruspude</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13df06ee-a86f-404a-832b-757fa8178e9d-0015c9f1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>250mm Hård Isolering Tunnel Nord</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc12a</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>200mm Gruspude Tunnel Nord</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2d20abb7-c771-48eb-a001-b2e1422f62bc-002dc133</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>250mm Hård Isolering Tunnel Syd</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b557a</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>200mm Gruspude Tunnel Syd</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>b78937ec-d42c-4b20-bb3d-57026f357d88-001b5607</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Udvendig ét fags vindue - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2172x1212</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e6c5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>stk</v>
-      </c>
-      <c r="F2">
-        <v>5900</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2232x1812</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3c0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>stk</v>
-      </c>
-      <c r="F3">
-        <v>15000</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2232x1465</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3ec</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>stk</v>
-      </c>
-      <c r="F4">
-        <v>6800</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Basic Roof - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Generic - 400mm</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f461</v>
-      </c>
-      <c r="D2">
-        <v>89.26</v>
-      </c>
-      <c r="E2" t="str">
-        <v>m2</v>
-      </c>
-      <c r="F2">
-        <v>526634</v>
-      </c>
-      <c r="G2">
-        <v>71.408</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -3,10 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
-    <sheet name="Floor " sheetId="2" r:id="rId2"/>
-    <sheet name="Udvendig ét fags vindue " sheetId="3" r:id="rId3"/>
-    <sheet name="Basic Roof " sheetId="4" r:id="rId4"/>
+    <sheet name="Basic wall" sheetId="1" r:id="rId1"/>
+    <sheet name="Udvendig ét fags vindue " sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -407,7 +405,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Basic Wall - Types</v>
+        <v>Basic wall- Types</v>
       </c>
       <c r="B1" t="str">
         <v>Sum</v>
@@ -430,71 +428,71 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Sandwichelement - 480mm</v>
+        <v>Støbt kældervæg, 200mm</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e681</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>72.37</v>
+        <v>20</v>
       </c>
       <c r="E2" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F2">
-        <v>303954</v>
+        <v>32500</v>
       </c>
       <c r="G2">
-        <v>144.74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sandwichelement - 450mm</v>
+        <v>Støbt kældervæg, 220mm</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e67f</v>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>19.614</v>
+        <v>60</v>
       </c>
       <c r="E3" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F3">
-        <v>78456</v>
+        <v>108000</v>
       </c>
       <c r="G3">
-        <v>39.228</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Beton vægelement - 150mm</v>
+        <v>Støbt kældervæg, 240mm</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f553</v>
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>281</v>
       </c>
       <c r="D4">
-        <v>20.384999999999998</v>
+        <v>190</v>
       </c>
       <c r="E4" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F4">
-        <v>26500.5</v>
+        <v>370500</v>
       </c>
       <c r="G4">
-        <v>34.6545</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5">
@@ -502,22 +500,22 @@
         <v>Fundament - 900mm</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f62f</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>31.71</v>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
         <v>lbm</v>
       </c>
       <c r="F5">
-        <v>136353</v>
+        <v>86000</v>
       </c>
       <c r="G5">
-        <v>95.13</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -529,67 +527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Floor - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Huldæk - 180mm</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e695</v>
-      </c>
-      <c r="D2">
-        <v>54.391</v>
-      </c>
-      <c r="E2" t="str">
-        <v>m2</v>
-      </c>
-      <c r="F2">
-        <v>299150.5</v>
-      </c>
-      <c r="G2">
-        <v>27.1955</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,136 +557,53 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2172x1212</v>
+        <v>2232x1812</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e6c5</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>stk</v>
       </c>
       <c r="F2">
-        <v>5900</v>
+        <v>15000</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2232x1812</v>
+        <v>2232x1465</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3c0</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>stk</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>6800</v>
       </c>
       <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2232x1465</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3ec</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>stk</v>
-      </c>
-      <c r="F4">
-        <v>6800</v>
-      </c>
-      <c r="G4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Basic Roof - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Generic - 400mm</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f461</v>
-      </c>
-      <c r="D2">
-        <v>89.26</v>
-      </c>
-      <c r="E2" t="str">
-        <v>m2</v>
-      </c>
-      <c r="F2">
-        <v>526634</v>
-      </c>
-      <c r="G2">
-        <v>71.408</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -3,8 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Basic wall" sheetId="1" r:id="rId1"/>
-    <sheet name="Udvendig ét fags vindue " sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
+    <sheet name="Floor " sheetId="2" r:id="rId2"/>
+    <sheet name="Udvendig ét fags vindue " sheetId="3" r:id="rId3"/>
+    <sheet name="Basic Roof " sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -405,7 +407,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Basic wall- Types</v>
+        <v>Basic Wall - Types</v>
       </c>
       <c r="B1" t="str">
         <v>Sum</v>
@@ -428,71 +430,71 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Støbt kældervæg, 200mm</v>
+        <v>Sandwichelement - 480mm</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
+        <v>72.37</v>
+      </c>
+      <c r="C2" t="str">
+        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e681</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>72.37</v>
       </c>
       <c r="E2" t="str">
-        <v>m²</v>
+        <v>m2</v>
       </c>
       <c r="F2">
-        <v>32500</v>
+        <v>303954</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>144.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Støbt kældervæg, 220mm</v>
+        <v>Sandwichelement - 450mm</v>
       </c>
       <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
+        <v>19.614</v>
+      </c>
+      <c r="C3" t="str">
+        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e67f</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>19.614</v>
       </c>
       <c r="E3" t="str">
-        <v>m²</v>
+        <v>m2</v>
       </c>
       <c r="F3">
-        <v>108000</v>
+        <v>78456</v>
       </c>
       <c r="G3">
-        <v>390</v>
+        <v>39.228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Støbt kældervæg, 240mm</v>
+        <v>Beton vægelement - 150mm</v>
       </c>
       <c r="B4">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>281</v>
+        <v>20.384999999999998</v>
+      </c>
+      <c r="C4" t="str">
+        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f553</v>
       </c>
       <c r="D4">
-        <v>190</v>
+        <v>20.384999999999998</v>
       </c>
       <c r="E4" t="str">
-        <v>m²</v>
+        <v>m2</v>
       </c>
       <c r="F4">
-        <v>370500</v>
+        <v>26500.5</v>
       </c>
       <c r="G4">
-        <v>1235</v>
+        <v>34.6545</v>
       </c>
     </row>
     <row r="5">
@@ -500,22 +502,22 @@
         <v>Fundament - 900mm</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
+        <v>31.71</v>
+      </c>
+      <c r="C5" t="str">
+        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f62f</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>31.71</v>
       </c>
       <c r="E5" t="str">
         <v>lbm</v>
       </c>
       <c r="F5">
-        <v>86000</v>
+        <v>136353</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>95.13</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +529,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Floor - Types</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Sum</v>
+      </c>
+      <c r="C1" t="str">
+        <v>id</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Unit</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total Price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Total Hours</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Huldæk - 180mm</v>
+      </c>
+      <c r="B2">
+        <v>54.391</v>
+      </c>
+      <c r="C2" t="str">
+        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e695</v>
+      </c>
+      <c r="D2">
+        <v>54.391</v>
+      </c>
+      <c r="E2" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F2">
+        <v>299150.5</v>
+      </c>
+      <c r="G2">
+        <v>27.1955</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,53 +619,136 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2232x1812</v>
+        <v>2172x1212</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e6c5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>stk</v>
       </c>
       <c r="F2">
-        <v>15000</v>
+        <v>5900</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2232x1465</v>
+        <v>2232x1812</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3c0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>stk</v>
       </c>
       <c r="F3">
+        <v>15000</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2232x1465</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3ec</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>stk</v>
+      </c>
+      <c r="F4">
         <v>6800</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Basic Roof - Types</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Sum</v>
+      </c>
+      <c r="C1" t="str">
+        <v>id</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Unit</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total Price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Total Hours</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Generic - 400mm</v>
+      </c>
+      <c r="B2">
+        <v>89.26</v>
+      </c>
+      <c r="C2" t="str">
+        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f461</v>
+      </c>
+      <c r="D2">
+        <v>89.26</v>
+      </c>
+      <c r="E2" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F2">
+        <v>526634</v>
+      </c>
+      <c r="G2">
+        <v>71.408</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -3,10 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
-    <sheet name="Floor " sheetId="2" r:id="rId2"/>
-    <sheet name="Udvendig ét fags vindue " sheetId="3" r:id="rId3"/>
-    <sheet name="Basic Roof " sheetId="4" r:id="rId4"/>
+    <sheet name="Basic wall" sheetId="1" r:id="rId1"/>
+    <sheet name="Udvendig ét fags vindue " sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -407,7 +405,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Basic Wall - Types</v>
+        <v>Basic wall- Types</v>
       </c>
       <c r="B1" t="str">
         <v>Sum</v>
@@ -430,71 +428,71 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Sandwichelement - 480mm</v>
+        <v>Støbt kældervæg, 200mm</v>
       </c>
       <c r="B2">
-        <v>72.37</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e681</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>72.37</v>
+        <v>20</v>
       </c>
       <c r="E2" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F2">
-        <v>303954</v>
+        <v>32500</v>
       </c>
       <c r="G2">
-        <v>144.74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sandwichelement - 450mm</v>
+        <v>Støbt kældervæg, 220mm</v>
       </c>
       <c r="B3">
-        <v>19.614</v>
-      </c>
-      <c r="C3" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e67f</v>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>19.614</v>
+        <v>60</v>
       </c>
       <c r="E3" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F3">
-        <v>78456</v>
+        <v>108000</v>
       </c>
       <c r="G3">
-        <v>39.228</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Beton vægelement - 150mm</v>
+        <v>Støbt kældervæg, 240mm</v>
       </c>
       <c r="B4">
-        <v>20.384999999999998</v>
-      </c>
-      <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f553</v>
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>281</v>
       </c>
       <c r="D4">
-        <v>20.384999999999998</v>
+        <v>190</v>
       </c>
       <c r="E4" t="str">
-        <v>m2</v>
+        <v>m²</v>
       </c>
       <c r="F4">
-        <v>26500.5</v>
+        <v>370500</v>
       </c>
       <c r="G4">
-        <v>34.6545</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5">
@@ -502,22 +500,22 @@
         <v>Fundament - 900mm</v>
       </c>
       <c r="B5">
-        <v>31.71</v>
-      </c>
-      <c r="C5" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f62f</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>31.71</v>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
         <v>lbm</v>
       </c>
       <c r="F5">
-        <v>136353</v>
+        <v>86000</v>
       </c>
       <c r="G5">
-        <v>95.13</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -529,67 +527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Floor - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Huldæk - 180mm</v>
-      </c>
-      <c r="B2">
-        <v>54.391</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e695</v>
-      </c>
-      <c r="D2">
-        <v>54.391</v>
-      </c>
-      <c r="E2" t="str">
-        <v>m2</v>
-      </c>
-      <c r="F2">
-        <v>299150.5</v>
-      </c>
-      <c r="G2">
-        <v>27.1955</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,136 +557,53 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2172x1212</v>
+        <v>2232x1812</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05715e94-2808-4363-8b0e-e99d6c480d84-0004e6c5</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>stk</v>
       </c>
       <c r="F2">
-        <v>5900</v>
+        <v>15000</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2232x1812</v>
+        <v>2232x1465</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3c0</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>stk</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>6800</v>
       </c>
       <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2232x1465</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f3ec</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>stk</v>
-      </c>
-      <c r="F4">
-        <v>6800</v>
-      </c>
-      <c r="G4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Basic Roof - Types</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Total Hours</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Generic - 400mm</v>
-      </c>
-      <c r="B2">
-        <v>89.26</v>
-      </c>
-      <c r="C2" t="str">
-        <v>565a1362-8ebb-4b98-8998-8a34722f6004-0004f461</v>
-      </c>
-      <c r="D2">
-        <v>89.26</v>
-      </c>
-      <c r="E2" t="str">
-        <v>m2</v>
-      </c>
-      <c r="F2">
-        <v>526634</v>
-      </c>
-      <c r="G2">
-        <v>71.408</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/metadata_cost.xlsx
+++ b/output/metadata_cost.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Basic wall" sheetId="1" r:id="rId1"/>
-    <sheet name="Udvendig ét fags vindue " sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
+    <sheet name="Floor " sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,14 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Basic wall- Types</v>
+        <v>Basic Wall - Types</v>
       </c>
       <c r="B1" t="str">
         <v>Sum</v>
@@ -428,113 +428,320 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Støbt kældervæg, 200mm</v>
+        <v>In-Situvæg - 200mm</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>8b4dfe17-1b10-476b-9215-1923a7450680-001cd1b8</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>m²</v>
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Støbt kældervæg, 220mm</v>
+        <v>Beton vægelement - 200mm</v>
       </c>
       <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>b2ba6dec-c079-4c11-8bc0-6e8bdfb1fed7-0022eff2</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>m²</v>
+        <v>no unit</v>
       </c>
       <c r="F3">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Støbt kældervæg, 240mm</v>
+        <v>In-Situvæg - 300mm</v>
       </c>
       <c r="B4">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>281</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>f09cb49f-3c44-4ae2-8851-0bc77f4eee1a-00161763</v>
       </c>
       <c r="D4">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>m²</v>
+        <v>no unit</v>
       </c>
       <c r="F4">
-        <v>370500</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Fundament - 900mm</v>
+        <v>In-Situvæg - 400mm</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>83fdf7c1-d703-4d5c-961b-1d8ef0e7f26b-0006068d</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>lbm</v>
+        <v>no unit</v>
       </c>
       <c r="F5">
-        <v>86000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>In-Situvæg - 250mm</v>
+      </c>
+      <c r="B6">
+        <v>777.335</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8dbd786f-e7f2-4fe1-90bd-5f055341b801-00197160</v>
+      </c>
+      <c r="D6">
+        <v>777.335</v>
+      </c>
+      <c r="E6" t="str">
+        <v>m²</v>
+      </c>
+      <c r="F6">
+        <v>1593536.7500000002</v>
+      </c>
+      <c r="G6">
+        <v>5441.345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>In-Situvæg - 150mm</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>d950a702-bdd2-4bd6-8526-3ebfeed123da-000f2edc</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Beton vægelement - 250mm</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>59b09e44-8ade-40a1-baad-fc77d457c7c1-0008998b</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Fundamentsskaft - 440mm</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ac2a2fb9-2ab2-4558-9fe5-3cdb4276070f-000bf4c6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Fundamentsskaft - 480mm</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3e54ba90-2b1e-4f86-a33a-3b8fbb79d84a-000ff3bf</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Fundamentsskaft - 750mm</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ac2a2fb9-2ab2-4558-9fe5-3cdb4276070f-000bffed</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Fundablokke - 150mm</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>4050f82b-d668-4f98-97ad-057facf831e0-00175d90</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Drænplade - 300mm</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v>b55faa54-f0ac-47f8-80ba-4f5996b70f06-0019d80e</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beton vægelement - 300mm</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <v>b2ba6dec-c079-4c11-8bc0-6e8bdfb1fed7-0022eb30</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Udvendig ét fags vindue - Types</v>
+        <v>Floor - Types</v>
       </c>
       <c r="B1" t="str">
         <v>Sum</v>
@@ -557,53 +764,260 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2232x1812</v>
+        <v>In-situ - 240mm</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>97d1a156-3bfb-411d-8979-8f0f98f6c0b3-00222122</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>stk</v>
+        <v>no unit</v>
       </c>
       <c r="F2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2232x1465</v>
+        <v>CLT-240-7s</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>016719dc-63b0-4a79-bf83-0b9f9f667cae-0020dd40</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>stk</v>
+        <v>no unit</v>
       </c>
       <c r="F3">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>In-situ - 300mm</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ee450957-ec40-4d43-a636-7b387a927953-00086952</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Huldæk - 220mm</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>074439f9-0e2b-45b0-9401-f001733c96d8-001e1b1b</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>In-situ - 220mm</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>55851a19-36e5-4405-8265-04a3d616e37c-0008dc10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Terrændæk - 100mm + Isolering 500mm</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>3027df25-681f-4e69-b0a1-4f15e29b6ae0-0018b24e</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Terrændæk - 100mm + Isolering 400mm</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4050f82b-d668-4f98-97ad-057facf831e0-00178fba</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Terrændæk - 100mm + Isolering 200mm</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3027df25-681f-4e69-b0a1-4f15e29b6ae0-0018c7fa</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Terrændæk - 100mm + Isolering 900mm</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3027df25-681f-4e69-b0a1-4f15e29b6ae0-0018c2f0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>In-situ - 150mm</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>6e47d8a9-5ed4-4843-8312-0bde725b4c88-0019df1c</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>In-situ - 200mm</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>c980f79a-7ab9-4402-b62e-5dbff3825d44-001a06f7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>no unit</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G12"/>
   </ignoredErrors>
 </worksheet>
 </file>